--- a/需要的动作.xlsx
+++ b/需要的动作.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="1056">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +93,6 @@
   </si>
   <si>
     <t>022</t>
-  </si>
-  <si>
-    <t>待命状态：没有任何位移或下半身的转身，敌人单手持枪张望，过5秒钟，自然下垂的持枪的手部会抬起来放到面部位置，枪口冲上保持5秒，张望。（敌人会突然咳嗽）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>巡逻状态：比较谨慎的行走姿态(正前方行走)，双手持枪，枪口向上。步行前进的过程中，头部会有搜索目光的张望。行走时会随机发生咳嗽。</t>
@@ -4941,791 +4936,791 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>一层远战敌人的被电动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一层近战敌人的被电动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二层近战敌人的被电动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一层近战敌人的行走动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>一层远战怪的行走，前</t>
+  </si>
+  <si>
+    <t>一层远战怪的行走，后</t>
+  </si>
+  <si>
+    <t>一层远战怪的行走，左</t>
+  </si>
+  <si>
+    <t>一层远战怪的行走，右</t>
+  </si>
+  <si>
+    <t>一层远战怪的行走，左前</t>
+  </si>
+  <si>
+    <t>一层远战怪的行走，右前</t>
+  </si>
+  <si>
+    <t>一层远战怪的行走，左后</t>
+  </si>
+  <si>
+    <t>一层远战怪的行走，右后</t>
+  </si>
+  <si>
+    <t>一层远战敌人的行走动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_WalkGun01_F</t>
+  </si>
+  <si>
+    <t>PSVR_WalkGun01_B</t>
+  </si>
+  <si>
+    <t>PSVR_WalkGun01_L</t>
+  </si>
+  <si>
+    <t>PSVR_WalkGun01_R</t>
+  </si>
+  <si>
+    <t>PSVR_WalkGun01_LF</t>
+  </si>
+  <si>
+    <t>PSVR_WalkGun01_RF</t>
+  </si>
+  <si>
+    <t>PSVR_WalkGun01_LB</t>
+  </si>
+  <si>
+    <t>PSVR_WalkGun01_RB</t>
+  </si>
+  <si>
+    <t>PSVR_Walk02_F</t>
+  </si>
+  <si>
+    <t>PSVR_Walk02_B</t>
+  </si>
+  <si>
+    <t>PSVR_Walk02_L</t>
+  </si>
+  <si>
+    <t>PSVR_Walk02_R</t>
+  </si>
+  <si>
+    <t>PSVR_Walk02_LF</t>
+  </si>
+  <si>
+    <t>PSVR_Walk02_RF</t>
+  </si>
+  <si>
+    <t>PSVR_Walk02_LB</t>
+  </si>
+  <si>
+    <t>PSVR_Walk02_RB</t>
+  </si>
+  <si>
+    <t>二层近战敌人的行走动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_Turn01_L045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_Turn01_L090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_Turn01_L135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_Turn01_L180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一层近战怪的转身，左45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一层近战怪的转身，左90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一层近战怪的转身，左135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一层近战怪的转身，左180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_Turn01_R045</t>
+  </si>
+  <si>
+    <t>PSVR_Turn01_R090</t>
+  </si>
+  <si>
+    <t>PSVR_Turn01_R135</t>
+  </si>
+  <si>
+    <t>PSVR_Turn01_R180</t>
+  </si>
+  <si>
+    <t>一层近战怪的转身，右45</t>
+  </si>
+  <si>
+    <t>一层近战怪的转身，右90</t>
+  </si>
+  <si>
+    <t>一层近战怪的转身，右135</t>
+  </si>
+  <si>
+    <t>一层近战怪的转身，右180</t>
+  </si>
+  <si>
+    <t>一层近战敌人的转身动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二层近战敌人的转身动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二层近战怪的转身，左45</t>
+  </si>
+  <si>
+    <t>二层近战怪的转身，左90</t>
+  </si>
+  <si>
+    <t>二层近战怪的转身，左135</t>
+  </si>
+  <si>
+    <t>二层近战怪的转身，左180</t>
+  </si>
+  <si>
+    <t>二层近战怪的转身，右45</t>
+  </si>
+  <si>
+    <t>二层近战怪的转身，右90</t>
+  </si>
+  <si>
+    <t>二层近战怪的转身，右135</t>
+  </si>
+  <si>
+    <t>二层近战怪的转身，右180</t>
+  </si>
+  <si>
+    <t>PSVR_Turn02_L045</t>
+  </si>
+  <si>
+    <t>PSVR_Turn02_L090</t>
+  </si>
+  <si>
+    <t>PSVR_Turn02_L135</t>
+  </si>
+  <si>
+    <t>PSVR_Turn02_L180</t>
+  </si>
+  <si>
+    <t>PSVR_Turn02_R045</t>
+  </si>
+  <si>
+    <t>PSVR_Turn02_R090</t>
+  </si>
+  <si>
+    <t>PSVR_Turn02_R135</t>
+  </si>
+  <si>
+    <t>PSVR_Turn02_R180</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>二层近战怪的行走，前</t>
+  </si>
+  <si>
+    <t>二层近战怪的行走，后</t>
+  </si>
+  <si>
+    <t>二层近战怪的行走，左</t>
+  </si>
+  <si>
+    <t>二层近战怪的行走，右</t>
+  </si>
+  <si>
+    <t>二层近战怪的行走，左前</t>
+  </si>
+  <si>
+    <t>二层近战怪的行走，右前</t>
+  </si>
+  <si>
+    <t>二层近战怪的行走，左后</t>
+  </si>
+  <si>
+    <t>二层近战怪的行走，右后</t>
+  </si>
+  <si>
+    <t>三层近战怪的行走，前</t>
+  </si>
+  <si>
+    <t>三层近战怪的行走，后</t>
+  </si>
+  <si>
+    <t>三层近战怪的行走，左</t>
+  </si>
+  <si>
+    <t>三层近战怪的行走，右</t>
+  </si>
+  <si>
+    <t>三层近战怪的行走，左前</t>
+  </si>
+  <si>
+    <t>三层近战怪的行走，右前</t>
+  </si>
+  <si>
+    <t>三层近战怪的行走，左后</t>
+  </si>
+  <si>
+    <t>三层近战怪的行走，右后</t>
+  </si>
+  <si>
+    <t>PSVR_Walk03_F</t>
+  </si>
+  <si>
+    <t>PSVR_Walk03_B</t>
+  </si>
+  <si>
+    <t>PSVR_Walk03_L</t>
+  </si>
+  <si>
+    <t>PSVR_Walk03_R</t>
+  </si>
+  <si>
+    <t>PSVR_Walk03_LF</t>
+  </si>
+  <si>
+    <t>PSVR_Walk03_RF</t>
+  </si>
+  <si>
+    <t>PSVR_Walk03_LB</t>
+  </si>
+  <si>
+    <t>PSVR_Walk03_RB</t>
+  </si>
+  <si>
+    <t>三层近战敌人的行走动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三层怪近战怪，各种被原地电到的姿势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_Shake03_01</t>
+  </si>
+  <si>
+    <t>PSVR_Shake03_02</t>
+  </si>
+  <si>
+    <t>PSVR_Shake03_03</t>
+  </si>
+  <si>
+    <t>PSVR_Shake03_04</t>
+  </si>
+  <si>
+    <t>PSVR_Shake03_05</t>
+  </si>
+  <si>
+    <t>PSVR_Shake03_06</t>
+  </si>
+  <si>
+    <t>PSVR_Shake03_07</t>
+  </si>
+  <si>
+    <t>PSVR_Shake03_08</t>
+  </si>
+  <si>
+    <t>PSVR_Shake03_09</t>
+  </si>
+  <si>
+    <t>PSVR_Shake03_10</t>
+  </si>
+  <si>
+    <t>三层近战敌人的被电动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>415</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>PSVR_Idle01_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_Idle01_02</t>
+  </si>
+  <si>
+    <t>PSVR_Idle01_03</t>
+  </si>
+  <si>
+    <t>待命状态：没有任何位移或下半身的转身，敌人单手持枪张望，过5秒钟，自然下垂的持枪的手部会抬起来放到面部位置，枪口冲上保持5秒，张望。（敌人会突然咳嗽）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>一层近战怪的待命状态(躲藏在掩体后的动作)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_ATK01_01</t>
+  </si>
+  <si>
+    <t>PSVR_ATK01_02</t>
+  </si>
+  <si>
+    <t>PSVR_ATK01_03</t>
+  </si>
+  <si>
+    <t>一层近战怪的攻击动作(正前方的攻击)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_Dead01_135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_Dead01_180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_Dead01_225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_Dead01_270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_Dead01_315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一层近战怪的死亡动作，倒地前方0度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一层近战怪的死亡动作，倒地前方45度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_Dead01_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_Dead01_045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_Dead01_090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一层近战怪的死亡动作，倒地前方90度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一层近战怪的死亡动作，倒地前方135度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一层近战怪的死亡动作，倒地前方180度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一层近战怪的死亡动作，倒地前方225度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一层近战怪的死亡动作，倒地前方270度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一层近战怪的死亡动作，倒地前方315度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_Idle02_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_Idle02_02</t>
+  </si>
+  <si>
+    <t>PSVR_Idle02_03</t>
+  </si>
+  <si>
+    <t>二层近战怪的待命状态(在寻找人的动作)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_ATK02_01</t>
+  </si>
+  <si>
+    <t>PSVR_ATK02_02</t>
+  </si>
+  <si>
+    <t>PSVR_ATK02_03</t>
+  </si>
+  <si>
+    <t>二层近战怪的攻击动作(正前方的攻击)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_PreATK02_01</t>
+  </si>
+  <si>
+    <t>PSVR_PreATK02_02</t>
+  </si>
+  <si>
+    <t>PSVR_PreATK02_03</t>
+  </si>
+  <si>
+    <t>二层近战怪的准备攻击动作(正前方的攻击)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_Away_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_Away_02</t>
+  </si>
+  <si>
+    <t>PSVR_Away_03</t>
+  </si>
+  <si>
+    <t>逃跑时的表演动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>PSVR_GetUp_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSVR_GetUp_02</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>起身动作（初始状态：脸面向天空；）从躺在地上起身到Idle的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起身动作（初始状态：脸面向地面；）从趴在地上起身到Idle的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>一层远战敌人的受击动作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一层近战敌人的受击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一层远战敌人的被电动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一层近战敌人的被电动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二层近战敌人的被电动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一层近战敌人的行走动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>337</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>341</t>
-  </si>
-  <si>
-    <t>342</t>
-  </si>
-  <si>
-    <t>343</t>
-  </si>
-  <si>
-    <t>344</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>346</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>348</t>
-  </si>
-  <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>352</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>一层远战怪的行走，前</t>
-  </si>
-  <si>
-    <t>一层远战怪的行走，后</t>
-  </si>
-  <si>
-    <t>一层远战怪的行走，左</t>
-  </si>
-  <si>
-    <t>一层远战怪的行走，右</t>
-  </si>
-  <si>
-    <t>一层远战怪的行走，左前</t>
-  </si>
-  <si>
-    <t>一层远战怪的行走，右前</t>
-  </si>
-  <si>
-    <t>一层远战怪的行走，左后</t>
-  </si>
-  <si>
-    <t>一层远战怪的行走，右后</t>
-  </si>
-  <si>
-    <t>一层远战敌人的行走动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_WalkGun01_F</t>
-  </si>
-  <si>
-    <t>PSVR_WalkGun01_B</t>
-  </si>
-  <si>
-    <t>PSVR_WalkGun01_L</t>
-  </si>
-  <si>
-    <t>PSVR_WalkGun01_R</t>
-  </si>
-  <si>
-    <t>PSVR_WalkGun01_LF</t>
-  </si>
-  <si>
-    <t>PSVR_WalkGun01_RF</t>
-  </si>
-  <si>
-    <t>PSVR_WalkGun01_LB</t>
-  </si>
-  <si>
-    <t>PSVR_WalkGun01_RB</t>
-  </si>
-  <si>
-    <t>PSVR_Walk02_F</t>
-  </si>
-  <si>
-    <t>PSVR_Walk02_B</t>
-  </si>
-  <si>
-    <t>PSVR_Walk02_L</t>
-  </si>
-  <si>
-    <t>PSVR_Walk02_R</t>
-  </si>
-  <si>
-    <t>PSVR_Walk02_LF</t>
-  </si>
-  <si>
-    <t>PSVR_Walk02_RF</t>
-  </si>
-  <si>
-    <t>PSVR_Walk02_LB</t>
-  </si>
-  <si>
-    <t>PSVR_Walk02_RB</t>
-  </si>
-  <si>
-    <t>二层近战敌人的行走动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_Turn01_L045</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_Turn01_L090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_Turn01_L135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_Turn01_L180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一层近战怪的转身，左45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一层近战怪的转身，左90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一层近战怪的转身，左135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一层近战怪的转身，左180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_Turn01_R045</t>
-  </si>
-  <si>
-    <t>PSVR_Turn01_R090</t>
-  </si>
-  <si>
-    <t>PSVR_Turn01_R135</t>
-  </si>
-  <si>
-    <t>PSVR_Turn01_R180</t>
-  </si>
-  <si>
-    <t>一层近战怪的转身，右45</t>
-  </si>
-  <si>
-    <t>一层近战怪的转身，右90</t>
-  </si>
-  <si>
-    <t>一层近战怪的转身，右135</t>
-  </si>
-  <si>
-    <t>一层近战怪的转身，右180</t>
-  </si>
-  <si>
-    <t>一层近战敌人的转身动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二层近战敌人的转身动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二层近战怪的转身，左45</t>
-  </si>
-  <si>
-    <t>二层近战怪的转身，左90</t>
-  </si>
-  <si>
-    <t>二层近战怪的转身，左135</t>
-  </si>
-  <si>
-    <t>二层近战怪的转身，左180</t>
-  </si>
-  <si>
-    <t>二层近战怪的转身，右45</t>
-  </si>
-  <si>
-    <t>二层近战怪的转身，右90</t>
-  </si>
-  <si>
-    <t>二层近战怪的转身，右135</t>
-  </si>
-  <si>
-    <t>二层近战怪的转身，右180</t>
-  </si>
-  <si>
-    <t>PSVR_Turn02_L045</t>
-  </si>
-  <si>
-    <t>PSVR_Turn02_L090</t>
-  </si>
-  <si>
-    <t>PSVR_Turn02_L135</t>
-  </si>
-  <si>
-    <t>PSVR_Turn02_L180</t>
-  </si>
-  <si>
-    <t>PSVR_Turn02_R045</t>
-  </si>
-  <si>
-    <t>PSVR_Turn02_R090</t>
-  </si>
-  <si>
-    <t>PSVR_Turn02_R135</t>
-  </si>
-  <si>
-    <t>PSVR_Turn02_R180</t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>361</t>
-  </si>
-  <si>
-    <t>362</t>
-  </si>
-  <si>
-    <t>363</t>
-  </si>
-  <si>
-    <t>364</t>
-  </si>
-  <si>
-    <t>365</t>
-  </si>
-  <si>
-    <t>366</t>
-  </si>
-  <si>
-    <t>367</t>
-  </si>
-  <si>
-    <t>368</t>
-  </si>
-  <si>
-    <t>369</t>
-  </si>
-  <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>二层近战怪的行走，前</t>
-  </si>
-  <si>
-    <t>二层近战怪的行走，后</t>
-  </si>
-  <si>
-    <t>二层近战怪的行走，左</t>
-  </si>
-  <si>
-    <t>二层近战怪的行走，右</t>
-  </si>
-  <si>
-    <t>二层近战怪的行走，左前</t>
-  </si>
-  <si>
-    <t>二层近战怪的行走，右前</t>
-  </si>
-  <si>
-    <t>二层近战怪的行走，左后</t>
-  </si>
-  <si>
-    <t>二层近战怪的行走，右后</t>
-  </si>
-  <si>
-    <t>三层近战怪的行走，前</t>
-  </si>
-  <si>
-    <t>三层近战怪的行走，后</t>
-  </si>
-  <si>
-    <t>三层近战怪的行走，左</t>
-  </si>
-  <si>
-    <t>三层近战怪的行走，右</t>
-  </si>
-  <si>
-    <t>三层近战怪的行走，左前</t>
-  </si>
-  <si>
-    <t>三层近战怪的行走，右前</t>
-  </si>
-  <si>
-    <t>三层近战怪的行走，左后</t>
-  </si>
-  <si>
-    <t>三层近战怪的行走，右后</t>
-  </si>
-  <si>
-    <t>PSVR_Walk03_F</t>
-  </si>
-  <si>
-    <t>PSVR_Walk03_B</t>
-  </si>
-  <si>
-    <t>PSVR_Walk03_L</t>
-  </si>
-  <si>
-    <t>PSVR_Walk03_R</t>
-  </si>
-  <si>
-    <t>PSVR_Walk03_LF</t>
-  </si>
-  <si>
-    <t>PSVR_Walk03_RF</t>
-  </si>
-  <si>
-    <t>PSVR_Walk03_LB</t>
-  </si>
-  <si>
-    <t>PSVR_Walk03_RB</t>
-  </si>
-  <si>
-    <t>三层近战敌人的行走动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三层怪近战怪，各种被原地电到的姿势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_Shake03_01</t>
-  </si>
-  <si>
-    <t>PSVR_Shake03_02</t>
-  </si>
-  <si>
-    <t>PSVR_Shake03_03</t>
-  </si>
-  <si>
-    <t>PSVR_Shake03_04</t>
-  </si>
-  <si>
-    <t>PSVR_Shake03_05</t>
-  </si>
-  <si>
-    <t>PSVR_Shake03_06</t>
-  </si>
-  <si>
-    <t>PSVR_Shake03_07</t>
-  </si>
-  <si>
-    <t>PSVR_Shake03_08</t>
-  </si>
-  <si>
-    <t>PSVR_Shake03_09</t>
-  </si>
-  <si>
-    <t>PSVR_Shake03_10</t>
-  </si>
-  <si>
-    <t>三层近战敌人的被电动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>371</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>373</t>
-  </si>
-  <si>
-    <t>374</t>
-  </si>
-  <si>
-    <t>375</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>377</t>
-  </si>
-  <si>
-    <t>378</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>381</t>
-  </si>
-  <si>
-    <t>382</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>385</t>
-  </si>
-  <si>
-    <t>386</t>
-  </si>
-  <si>
-    <t>387</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>389</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>391</t>
-  </si>
-  <si>
-    <t>392</t>
-  </si>
-  <si>
-    <t>393</t>
-  </si>
-  <si>
-    <t>394</t>
-  </si>
-  <si>
-    <t>395</t>
-  </si>
-  <si>
-    <t>396</t>
-  </si>
-  <si>
-    <t>397</t>
-  </si>
-  <si>
-    <t>398</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>402</t>
-  </si>
-  <si>
-    <t>403</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>405</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
-    <t>407</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>409</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>411</t>
-  </si>
-  <si>
-    <t>412</t>
-  </si>
-  <si>
-    <t>413</t>
-  </si>
-  <si>
-    <t>414</t>
-  </si>
-  <si>
-    <t>415</t>
-  </si>
-  <si>
-    <t>416</t>
-  </si>
-  <si>
-    <t>417</t>
-  </si>
-  <si>
-    <t>418</t>
-  </si>
-  <si>
-    <t>419</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>PSVR_Idle01_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_Idle01_02</t>
-  </si>
-  <si>
-    <t>PSVR_Idle01_03</t>
-  </si>
-  <si>
-    <t>待命状态：没有任何位移或下半身的转身，敌人单手持枪张望，过5秒钟，自然下垂的持枪的手部会抬起来放到面部位置，枪口冲上保持5秒，张望。（敌人会突然咳嗽）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>421</t>
-  </si>
-  <si>
-    <t>422</t>
-  </si>
-  <si>
-    <t>一层近战怪的待命状态(躲藏在掩体后的动作)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_ATK01_01</t>
-  </si>
-  <si>
-    <t>PSVR_ATK01_02</t>
-  </si>
-  <si>
-    <t>PSVR_ATK01_03</t>
-  </si>
-  <si>
-    <t>一层近战怪的攻击动作(正前方的攻击)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_Dead01_135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_Dead01_180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_Dead01_225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_Dead01_270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_Dead01_315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一层近战怪的死亡动作，倒地前方0度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一层近战怪的死亡动作，倒地前方45度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_Dead01_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_Dead01_045</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_Dead01_090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一层近战怪的死亡动作，倒地前方90度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一层近战怪的死亡动作，倒地前方135度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一层近战怪的死亡动作，倒地前方180度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一层近战怪的死亡动作，倒地前方225度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一层近战怪的死亡动作，倒地前方270度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一层近战怪的死亡动作，倒地前方315度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_Idle02_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_Idle02_02</t>
-  </si>
-  <si>
-    <t>PSVR_Idle02_03</t>
-  </si>
-  <si>
-    <t>二层近战怪的待命状态(在寻找人的动作)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_ATK02_01</t>
-  </si>
-  <si>
-    <t>PSVR_ATK02_02</t>
-  </si>
-  <si>
-    <t>PSVR_ATK02_03</t>
-  </si>
-  <si>
-    <t>二层近战怪的攻击动作(正前方的攻击)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_PreATK02_01</t>
-  </si>
-  <si>
-    <t>PSVR_PreATK02_02</t>
-  </si>
-  <si>
-    <t>PSVR_PreATK02_03</t>
-  </si>
-  <si>
-    <t>二层近战怪的准备攻击动作(正前方的攻击)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_Away_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_Away_02</t>
-  </si>
-  <si>
-    <t>PSVR_Away_03</t>
-  </si>
-  <si>
-    <t>逃跑时的表演动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>423</t>
-  </si>
-  <si>
-    <t>424</t>
-  </si>
-  <si>
-    <t>425</t>
-  </si>
-  <si>
-    <t>426</t>
-  </si>
-  <si>
-    <t>427</t>
-  </si>
-  <si>
-    <t>428</t>
-  </si>
-  <si>
-    <t>429</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>431</t>
-  </si>
-  <si>
-    <t>PSVR_GetUp_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSVR_GetUp_02</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>433</t>
-  </si>
-  <si>
-    <t>起身动作（初始状态：脸面向天空；）从躺在地上起身到Idle的状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起身动作（初始状态：脸面向地面；）从趴在地上起身到Idle的状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6139,13 +6134,45 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6157,46 +6184,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
@@ -6214,53 +6220,42 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -6358,117 +6353,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8724900" y="1190625"/>
-          <a:ext cx="1057275" cy="1057275"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartOr">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7316739</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>144762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>8391525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>169564</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="流程图: 汇总连接 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10136139" y="1344912"/>
-          <a:ext cx="1074786" cy="1053502"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartSummingJunction">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7324725</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>8382000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="流程图: 或者 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10144125" y="1343025"/>
           <a:ext cx="1057275" cy="1057275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOr">
@@ -6793,8 +6677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="C414" sqref="C414"/>
+    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="C396" sqref="B396:C403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6820,13 +6704,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>804</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>811</v>
+        <v>73</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>803</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6834,129 +6718,129 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="55"/>
+        <v>84</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="60"/>
     </row>
     <row r="4" spans="1:4" ht="14.25" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="55"/>
+        <v>82</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>805</v>
-      </c>
-      <c r="D5" s="55"/>
+        <v>74</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>804</v>
+      </c>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="55"/>
+        <v>83</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="55"/>
+        <v>75</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>806</v>
-      </c>
-      <c r="D8" s="55"/>
+        <v>76</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>805</v>
+      </c>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="55"/>
+        <v>77</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:4" ht="14.25" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="55"/>
+        <v>78</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>807</v>
-      </c>
-      <c r="D11" s="55"/>
+        <v>79</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>806</v>
+      </c>
+      <c r="D11" s="60"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="55"/>
+        <v>80</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:4" ht="14.25" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="55"/>
+        <v>81</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>812</v>
+        <v>85</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6964,4563 +6848,4675 @@
         <v>16</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="60"/>
+        <v>86</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="65"/>
     </row>
     <row r="16" spans="1:4" ht="14.25" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="60"/>
+        <v>87</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="65"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>573</v>
-      </c>
-      <c r="D17" s="60"/>
+        <v>88</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>572</v>
+      </c>
+      <c r="D17" s="65"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="60"/>
+        <v>89</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="65"/>
     </row>
     <row r="19" spans="1:4" ht="13.5" customHeight="1" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="60"/>
+        <v>90</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="65"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="63" t="s">
-        <v>574</v>
-      </c>
-      <c r="D20" s="60"/>
+        <v>91</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>573</v>
+      </c>
+      <c r="D20" s="65"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="60"/>
+        <v>92</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="65"/>
     </row>
     <row r="22" spans="1:4" ht="13.5" customHeight="1" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="60"/>
+        <v>93</v>
+      </c>
+      <c r="C22" s="44"/>
+      <c r="D22" s="65"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="74" t="s">
-        <v>575</v>
-      </c>
-      <c r="D23" s="60"/>
+        <v>94</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>574</v>
+      </c>
+      <c r="D23" s="65"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="60"/>
+        <v>95</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="65"/>
     </row>
     <row r="25" spans="1:4" ht="13.5" customHeight="1" thickBot="1">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="60"/>
+        <v>96</v>
+      </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="65"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="74" t="s">
-        <v>576</v>
-      </c>
-      <c r="D26" s="60"/>
+        <v>97</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>575</v>
+      </c>
+      <c r="D26" s="65"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="60"/>
+        <v>98</v>
+      </c>
+      <c r="C27" s="48"/>
+      <c r="D27" s="65"/>
     </row>
     <row r="28" spans="1:4" ht="13.5" customHeight="1" thickBot="1">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="60"/>
+        <v>99</v>
+      </c>
+      <c r="C28" s="49"/>
+      <c r="D28" s="65"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="74" t="s">
-        <v>577</v>
-      </c>
-      <c r="D29" s="60"/>
+        <v>100</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>576</v>
+      </c>
+      <c r="D29" s="65"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="60"/>
+        <v>101</v>
+      </c>
+      <c r="C30" s="48"/>
+      <c r="D30" s="65"/>
     </row>
     <row r="31" spans="1:4" ht="14.25" thickBot="1">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="75"/>
-      <c r="D31" s="60"/>
+        <v>102</v>
+      </c>
+      <c r="C31" s="49"/>
+      <c r="D31" s="65"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="71" t="s">
-        <v>578</v>
-      </c>
-      <c r="D32" s="60"/>
+        <v>103</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>577</v>
+      </c>
+      <c r="D32" s="65"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="60"/>
+        <v>104</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="65"/>
     </row>
     <row r="34" spans="1:4" ht="14.25" thickBot="1">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="60"/>
+        <v>105</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="65"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="71" t="s">
-        <v>579</v>
-      </c>
-      <c r="D35" s="60"/>
+        <v>106</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>578</v>
+      </c>
+      <c r="D35" s="65"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="60"/>
+        <v>107</v>
+      </c>
+      <c r="C36" s="41"/>
+      <c r="D36" s="65"/>
     </row>
     <row r="37" spans="1:4" ht="14.25" thickBot="1">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="60"/>
+        <v>108</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="65"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="71" t="s">
-        <v>580</v>
-      </c>
-      <c r="D38" s="60"/>
+        <v>109</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>579</v>
+      </c>
+      <c r="D38" s="65"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="71"/>
-      <c r="D39" s="60"/>
+        <v>110</v>
+      </c>
+      <c r="C39" s="41"/>
+      <c r="D39" s="65"/>
     </row>
     <row r="40" spans="1:4" ht="14.25" thickBot="1">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="60"/>
+        <v>111</v>
+      </c>
+      <c r="C40" s="42"/>
+      <c r="D40" s="65"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>581</v>
-      </c>
-      <c r="D41" s="60"/>
+        <v>112</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>580</v>
+      </c>
+      <c r="D41" s="65"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="60"/>
+        <v>113</v>
+      </c>
+      <c r="C42" s="39"/>
+      <c r="D42" s="65"/>
     </row>
     <row r="43" spans="1:4" ht="14.25" thickBot="1">
       <c r="A43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="60"/>
+        <v>114</v>
+      </c>
+      <c r="C43" s="40"/>
+      <c r="D43" s="65"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="38" t="s">
-        <v>582</v>
-      </c>
-      <c r="D44" s="60"/>
+        <v>115</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>581</v>
+      </c>
+      <c r="D44" s="65"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="60"/>
+        <v>116</v>
+      </c>
+      <c r="C45" s="39"/>
+      <c r="D45" s="65"/>
     </row>
     <row r="46" spans="1:4" ht="14.25" thickBot="1">
       <c r="A46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="60"/>
+        <v>117</v>
+      </c>
+      <c r="C46" s="40"/>
+      <c r="D46" s="65"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>583</v>
-      </c>
-      <c r="D47" s="60"/>
+        <v>118</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="D47" s="65"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="60"/>
+        <v>119</v>
+      </c>
+      <c r="C48" s="39"/>
+      <c r="D48" s="65"/>
     </row>
     <row r="49" spans="1:4" ht="14.25" thickBot="1">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="60"/>
+        <v>120</v>
+      </c>
+      <c r="C49" s="40"/>
+      <c r="D49" s="65"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" s="63" t="s">
-        <v>584</v>
-      </c>
-      <c r="D50" s="60"/>
+        <v>121</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>583</v>
+      </c>
+      <c r="D50" s="65"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" s="63"/>
-      <c r="D51" s="60"/>
+        <v>122</v>
+      </c>
+      <c r="C51" s="43"/>
+      <c r="D51" s="65"/>
     </row>
     <row r="52" spans="1:4" ht="14.25" thickBot="1">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" s="64"/>
-      <c r="D52" s="60"/>
+        <v>123</v>
+      </c>
+      <c r="C52" s="44"/>
+      <c r="D52" s="65"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="63" t="s">
-        <v>585</v>
-      </c>
-      <c r="D53" s="60"/>
+        <v>124</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>584</v>
+      </c>
+      <c r="D53" s="65"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="63"/>
-      <c r="D54" s="60"/>
+        <v>125</v>
+      </c>
+      <c r="C54" s="43"/>
+      <c r="D54" s="65"/>
     </row>
     <row r="55" spans="1:4" ht="14.25" thickBot="1">
       <c r="A55" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="64"/>
-      <c r="D55" s="60"/>
+        <v>126</v>
+      </c>
+      <c r="C55" s="44"/>
+      <c r="D55" s="65"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="63" t="s">
-        <v>586</v>
-      </c>
-      <c r="D56" s="60"/>
+        <v>127</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>585</v>
+      </c>
+      <c r="D56" s="65"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C57" s="63"/>
-      <c r="D57" s="60"/>
+        <v>128</v>
+      </c>
+      <c r="C57" s="43"/>
+      <c r="D57" s="65"/>
     </row>
     <row r="58" spans="1:4" ht="14.25" thickBot="1">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" s="64"/>
-      <c r="D58" s="60"/>
+        <v>129</v>
+      </c>
+      <c r="C58" s="44"/>
+      <c r="D58" s="65"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="74" t="s">
-        <v>587</v>
-      </c>
-      <c r="D59" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="C59" s="48" t="s">
+        <v>586</v>
+      </c>
+      <c r="D59" s="65"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" s="74"/>
-      <c r="D60" s="60"/>
+        <v>131</v>
+      </c>
+      <c r="C60" s="48"/>
+      <c r="D60" s="65"/>
     </row>
     <row r="61" spans="1:4" ht="14.25" thickBot="1">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="75"/>
-      <c r="D61" s="60"/>
+        <v>132</v>
+      </c>
+      <c r="C61" s="49"/>
+      <c r="D61" s="65"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="74" t="s">
-        <v>588</v>
-      </c>
-      <c r="D62" s="60"/>
+        <v>133</v>
+      </c>
+      <c r="C62" s="48" t="s">
+        <v>587</v>
+      </c>
+      <c r="D62" s="65"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="74"/>
-      <c r="D63" s="60"/>
+        <v>134</v>
+      </c>
+      <c r="C63" s="48"/>
+      <c r="D63" s="65"/>
     </row>
     <row r="64" spans="1:4" ht="14.25" thickBot="1">
       <c r="A64" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C64" s="75"/>
-      <c r="D64" s="60"/>
+        <v>135</v>
+      </c>
+      <c r="C64" s="49"/>
+      <c r="D64" s="65"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" s="74" t="s">
-        <v>589</v>
-      </c>
-      <c r="D65" s="60"/>
+        <v>136</v>
+      </c>
+      <c r="C65" s="48" t="s">
+        <v>588</v>
+      </c>
+      <c r="D65" s="65"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C66" s="74"/>
-      <c r="D66" s="60"/>
+        <v>137</v>
+      </c>
+      <c r="C66" s="48"/>
+      <c r="D66" s="65"/>
     </row>
     <row r="67" spans="1:4" ht="14.25" thickBot="1">
       <c r="A67" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" s="75"/>
-      <c r="D67" s="60"/>
+        <v>138</v>
+      </c>
+      <c r="C67" s="49"/>
+      <c r="D67" s="65"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C68" s="71" t="s">
-        <v>590</v>
-      </c>
-      <c r="D68" s="60"/>
+        <v>139</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>589</v>
+      </c>
+      <c r="D68" s="65"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C69" s="71"/>
-      <c r="D69" s="60"/>
+        <v>140</v>
+      </c>
+      <c r="C69" s="41"/>
+      <c r="D69" s="65"/>
     </row>
     <row r="70" spans="1:4" ht="14.25" thickBot="1">
       <c r="A70" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" s="72"/>
-      <c r="D70" s="60"/>
+        <v>141</v>
+      </c>
+      <c r="C70" s="42"/>
+      <c r="D70" s="65"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" s="71" t="s">
-        <v>591</v>
-      </c>
-      <c r="D71" s="60"/>
+        <v>142</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>590</v>
+      </c>
+      <c r="D71" s="65"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C72" s="71"/>
-      <c r="D72" s="60"/>
+        <v>143</v>
+      </c>
+      <c r="C72" s="41"/>
+      <c r="D72" s="65"/>
     </row>
     <row r="73" spans="1:4" ht="14.25" thickBot="1">
       <c r="A73" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C73" s="72"/>
-      <c r="D73" s="60"/>
+        <v>144</v>
+      </c>
+      <c r="C73" s="42"/>
+      <c r="D73" s="65"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C74" s="71" t="s">
-        <v>592</v>
-      </c>
-      <c r="D74" s="60"/>
+        <v>145</v>
+      </c>
+      <c r="C74" s="41" t="s">
+        <v>591</v>
+      </c>
+      <c r="D74" s="65"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C75" s="71"/>
-      <c r="D75" s="60"/>
+        <v>146</v>
+      </c>
+      <c r="C75" s="41"/>
+      <c r="D75" s="65"/>
     </row>
     <row r="76" spans="1:4" ht="14.25" thickBot="1">
       <c r="A76" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C76" s="72"/>
-      <c r="D76" s="60"/>
+        <v>147</v>
+      </c>
+      <c r="C76" s="42"/>
+      <c r="D76" s="65"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C77" s="70" t="s">
-        <v>593</v>
-      </c>
-      <c r="D77" s="60"/>
+        <v>148</v>
+      </c>
+      <c r="C77" s="50" t="s">
+        <v>592</v>
+      </c>
+      <c r="D77" s="65"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C78" s="70"/>
-      <c r="D78" s="60"/>
+        <v>149</v>
+      </c>
+      <c r="C78" s="50"/>
+      <c r="D78" s="65"/>
     </row>
     <row r="79" spans="1:4" ht="14.25" thickBot="1">
       <c r="A79" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C79" s="73"/>
-      <c r="D79" s="60"/>
+        <v>150</v>
+      </c>
+      <c r="C79" s="51"/>
+      <c r="D79" s="65"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C80" s="70" t="s">
-        <v>594</v>
-      </c>
-      <c r="D80" s="60"/>
+        <v>151</v>
+      </c>
+      <c r="C80" s="50" t="s">
+        <v>593</v>
+      </c>
+      <c r="D80" s="65"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C81" s="70"/>
-      <c r="D81" s="60"/>
+        <v>152</v>
+      </c>
+      <c r="C81" s="50"/>
+      <c r="D81" s="65"/>
     </row>
     <row r="82" spans="1:4" ht="14.25" thickBot="1">
       <c r="A82" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C82" s="73"/>
-      <c r="D82" s="60"/>
+        <v>153</v>
+      </c>
+      <c r="C82" s="51"/>
+      <c r="D82" s="65"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C83" s="70" t="s">
-        <v>595</v>
-      </c>
-      <c r="D83" s="60"/>
+        <v>154</v>
+      </c>
+      <c r="C83" s="50" t="s">
+        <v>594</v>
+      </c>
+      <c r="D83" s="65"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C84" s="70"/>
-      <c r="D84" s="60"/>
+        <v>155</v>
+      </c>
+      <c r="C84" s="50"/>
+      <c r="D84" s="65"/>
     </row>
     <row r="85" spans="1:4" ht="14.25" thickBot="1">
       <c r="A85" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="73"/>
-      <c r="D85" s="60"/>
+        <v>156</v>
+      </c>
+      <c r="C85" s="51"/>
+      <c r="D85" s="65"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="C86" s="63" t="s">
-        <v>596</v>
-      </c>
-      <c r="D86" s="60"/>
+        <v>653</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>595</v>
+      </c>
+      <c r="D86" s="65"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="C87" s="63"/>
-      <c r="D87" s="60"/>
+        <v>654</v>
+      </c>
+      <c r="C87" s="43"/>
+      <c r="D87" s="65"/>
     </row>
     <row r="88" spans="1:4" ht="14.25" thickBot="1">
       <c r="A88" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="C88" s="64"/>
-      <c r="D88" s="60"/>
+        <v>655</v>
+      </c>
+      <c r="C88" s="44"/>
+      <c r="D88" s="65"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B89" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="C89" s="43" t="s">
         <v>657</v>
       </c>
-      <c r="C89" s="63" t="s">
-        <v>658</v>
-      </c>
-      <c r="D89" s="60"/>
+      <c r="D89" s="65"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>659</v>
-      </c>
-      <c r="C90" s="63"/>
-      <c r="D90" s="60"/>
+        <v>658</v>
+      </c>
+      <c r="C90" s="43"/>
+      <c r="D90" s="65"/>
     </row>
     <row r="91" spans="1:4" ht="14.25" thickBot="1">
       <c r="A91" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>660</v>
-      </c>
-      <c r="C91" s="64"/>
-      <c r="D91" s="60"/>
+        <v>659</v>
+      </c>
+      <c r="C91" s="44"/>
+      <c r="D91" s="65"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B92" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="C92" s="43" t="s">
         <v>661</v>
       </c>
-      <c r="C92" s="63" t="s">
-        <v>662</v>
-      </c>
-      <c r="D92" s="60"/>
+      <c r="D92" s="65"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>663</v>
-      </c>
-      <c r="C93" s="63"/>
-      <c r="D93" s="60"/>
+        <v>662</v>
+      </c>
+      <c r="C93" s="43"/>
+      <c r="D93" s="65"/>
     </row>
     <row r="94" spans="1:4" ht="14.25" thickBot="1">
       <c r="A94" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="C94" s="64"/>
-      <c r="D94" s="60"/>
+        <v>663</v>
+      </c>
+      <c r="C94" s="44"/>
+      <c r="D94" s="65"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="C95" s="74" t="s">
-        <v>665</v>
-      </c>
-      <c r="D95" s="60"/>
+        <v>194</v>
+      </c>
+      <c r="C95" s="48" t="s">
+        <v>664</v>
+      </c>
+      <c r="D95" s="65"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C96" s="74"/>
-      <c r="D96" s="60"/>
+        <v>195</v>
+      </c>
+      <c r="C96" s="48"/>
+      <c r="D96" s="65"/>
     </row>
     <row r="97" spans="1:4" ht="14.25" thickBot="1">
       <c r="A97" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C97" s="75"/>
-      <c r="D97" s="60"/>
+        <v>196</v>
+      </c>
+      <c r="C97" s="49"/>
+      <c r="D97" s="65"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>645</v>
-      </c>
-      <c r="C98" s="74" t="s">
-        <v>597</v>
-      </c>
-      <c r="D98" s="60"/>
+        <v>644</v>
+      </c>
+      <c r="C98" s="48" t="s">
+        <v>596</v>
+      </c>
+      <c r="D98" s="65"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>646</v>
-      </c>
-      <c r="C99" s="74"/>
-      <c r="D99" s="60"/>
+        <v>645</v>
+      </c>
+      <c r="C99" s="48"/>
+      <c r="D99" s="65"/>
     </row>
     <row r="100" spans="1:4" ht="14.25" thickBot="1">
       <c r="A100" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>647</v>
-      </c>
-      <c r="C100" s="75"/>
-      <c r="D100" s="60"/>
+        <v>646</v>
+      </c>
+      <c r="C100" s="49"/>
+      <c r="D100" s="65"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>648</v>
-      </c>
-      <c r="C101" s="74" t="s">
-        <v>598</v>
-      </c>
-      <c r="D101" s="60"/>
+        <v>647</v>
+      </c>
+      <c r="C101" s="48" t="s">
+        <v>597</v>
+      </c>
+      <c r="D101" s="65"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>649</v>
-      </c>
-      <c r="C102" s="74"/>
-      <c r="D102" s="60"/>
+        <v>648</v>
+      </c>
+      <c r="C102" s="48"/>
+      <c r="D102" s="65"/>
     </row>
     <row r="103" spans="1:4" ht="14.25" thickBot="1">
       <c r="A103" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>650</v>
-      </c>
-      <c r="C103" s="75"/>
-      <c r="D103" s="60"/>
+        <v>649</v>
+      </c>
+      <c r="C103" s="49"/>
+      <c r="D103" s="65"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>651</v>
-      </c>
-      <c r="C104" s="71" t="s">
-        <v>599</v>
-      </c>
-      <c r="D104" s="60"/>
+        <v>650</v>
+      </c>
+      <c r="C104" s="41" t="s">
+        <v>598</v>
+      </c>
+      <c r="D104" s="65"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>652</v>
-      </c>
-      <c r="C105" s="71"/>
-      <c r="D105" s="60"/>
+        <v>651</v>
+      </c>
+      <c r="C105" s="41"/>
+      <c r="D105" s="65"/>
     </row>
     <row r="106" spans="1:4" ht="14.25" thickBot="1">
       <c r="A106" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>653</v>
-      </c>
-      <c r="C106" s="72"/>
-      <c r="D106" s="60"/>
+        <v>652</v>
+      </c>
+      <c r="C106" s="42"/>
+      <c r="D106" s="65"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="C107" s="71" t="s">
-        <v>600</v>
-      </c>
-      <c r="D107" s="60"/>
+        <v>197</v>
+      </c>
+      <c r="C107" s="41" t="s">
+        <v>599</v>
+      </c>
+      <c r="D107" s="65"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="C108" s="71"/>
-      <c r="D108" s="60"/>
+        <v>198</v>
+      </c>
+      <c r="C108" s="41"/>
+      <c r="D108" s="65"/>
     </row>
     <row r="109" spans="1:4" ht="14.25" thickBot="1">
       <c r="A109" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="C109" s="72"/>
-      <c r="D109" s="60"/>
+        <v>199</v>
+      </c>
+      <c r="C109" s="42"/>
+      <c r="D109" s="65"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C110" s="71" t="s">
-        <v>601</v>
-      </c>
-      <c r="D110" s="60"/>
+        <v>200</v>
+      </c>
+      <c r="C110" s="41" t="s">
+        <v>600</v>
+      </c>
+      <c r="D110" s="65"/>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="C111" s="71"/>
-      <c r="D111" s="60"/>
+        <v>201</v>
+      </c>
+      <c r="C111" s="41"/>
+      <c r="D111" s="65"/>
     </row>
     <row r="112" spans="1:4" ht="14.25" thickBot="1">
       <c r="A112" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="C112" s="72"/>
-      <c r="D112" s="60"/>
+        <v>202</v>
+      </c>
+      <c r="C112" s="42"/>
+      <c r="D112" s="65"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="C113" s="38" t="s">
-        <v>602</v>
-      </c>
-      <c r="D113" s="60"/>
+        <v>203</v>
+      </c>
+      <c r="C113" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="D113" s="65"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="C114" s="38"/>
-      <c r="D114" s="60"/>
+        <v>204</v>
+      </c>
+      <c r="C114" s="39"/>
+      <c r="D114" s="65"/>
     </row>
     <row r="115" spans="1:4" ht="14.25" thickBot="1">
       <c r="A115" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="C115" s="39"/>
-      <c r="D115" s="60"/>
+        <v>205</v>
+      </c>
+      <c r="C115" s="40"/>
+      <c r="D115" s="65"/>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C116" s="38" t="s">
-        <v>603</v>
-      </c>
-      <c r="D116" s="60"/>
+        <v>206</v>
+      </c>
+      <c r="C116" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="D116" s="65"/>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C117" s="38"/>
-      <c r="D117" s="60"/>
+        <v>207</v>
+      </c>
+      <c r="C117" s="39"/>
+      <c r="D117" s="65"/>
     </row>
     <row r="118" spans="1:4" ht="14.25" thickBot="1">
       <c r="A118" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C118" s="39"/>
-      <c r="D118" s="60"/>
+        <v>208</v>
+      </c>
+      <c r="C118" s="40"/>
+      <c r="D118" s="65"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="C119" s="38" t="s">
-        <v>604</v>
-      </c>
-      <c r="D119" s="60"/>
+        <v>209</v>
+      </c>
+      <c r="C119" s="39" t="s">
+        <v>603</v>
+      </c>
+      <c r="D119" s="65"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C120" s="38"/>
-      <c r="D120" s="60"/>
+        <v>210</v>
+      </c>
+      <c r="C120" s="39"/>
+      <c r="D120" s="65"/>
     </row>
     <row r="121" spans="1:4" ht="14.25" thickBot="1">
       <c r="A121" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="C121" s="39"/>
-      <c r="D121" s="60"/>
+        <v>211</v>
+      </c>
+      <c r="C121" s="40"/>
+      <c r="D121" s="65"/>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C122" s="63" t="s">
-        <v>605</v>
-      </c>
-      <c r="D122" s="60"/>
+        <v>212</v>
+      </c>
+      <c r="C122" s="43" t="s">
+        <v>604</v>
+      </c>
+      <c r="D122" s="65"/>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C123" s="63"/>
-      <c r="D123" s="60"/>
+        <v>213</v>
+      </c>
+      <c r="C123" s="43"/>
+      <c r="D123" s="65"/>
     </row>
     <row r="124" spans="1:4" ht="14.25" thickBot="1">
       <c r="A124" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C124" s="64"/>
-      <c r="D124" s="60"/>
+        <v>214</v>
+      </c>
+      <c r="C124" s="44"/>
+      <c r="D124" s="65"/>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C125" s="63" t="s">
-        <v>606</v>
-      </c>
-      <c r="D125" s="60"/>
+        <v>215</v>
+      </c>
+      <c r="C125" s="43" t="s">
+        <v>605</v>
+      </c>
+      <c r="D125" s="65"/>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C126" s="63"/>
-      <c r="D126" s="60"/>
+        <v>216</v>
+      </c>
+      <c r="C126" s="43"/>
+      <c r="D126" s="65"/>
     </row>
     <row r="127" spans="1:4" ht="14.25" thickBot="1">
       <c r="A127" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C127" s="64"/>
-      <c r="D127" s="60"/>
+        <v>217</v>
+      </c>
+      <c r="C127" s="44"/>
+      <c r="D127" s="65"/>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C128" s="63" t="s">
-        <v>607</v>
-      </c>
-      <c r="D128" s="60"/>
+        <v>218</v>
+      </c>
+      <c r="C128" s="43" t="s">
+        <v>606</v>
+      </c>
+      <c r="D128" s="65"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C129" s="63"/>
-      <c r="D129" s="60"/>
+        <v>219</v>
+      </c>
+      <c r="C129" s="43"/>
+      <c r="D129" s="65"/>
     </row>
     <row r="130" spans="1:4" ht="14.25" thickBot="1">
       <c r="A130" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C130" s="64"/>
-      <c r="D130" s="60"/>
+        <v>220</v>
+      </c>
+      <c r="C130" s="44"/>
+      <c r="D130" s="65"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="C131" s="74" t="s">
-        <v>608</v>
-      </c>
-      <c r="D131" s="60"/>
+        <v>221</v>
+      </c>
+      <c r="C131" s="48" t="s">
+        <v>607</v>
+      </c>
+      <c r="D131" s="65"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="C132" s="74"/>
-      <c r="D132" s="60"/>
+        <v>222</v>
+      </c>
+      <c r="C132" s="48"/>
+      <c r="D132" s="65"/>
     </row>
     <row r="133" spans="1:4" ht="14.25" thickBot="1">
       <c r="A133" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C133" s="75"/>
-      <c r="D133" s="60"/>
+        <v>223</v>
+      </c>
+      <c r="C133" s="49"/>
+      <c r="D133" s="65"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="C134" s="74" t="s">
-        <v>609</v>
-      </c>
-      <c r="D134" s="60"/>
+        <v>224</v>
+      </c>
+      <c r="C134" s="48" t="s">
+        <v>608</v>
+      </c>
+      <c r="D134" s="65"/>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="C135" s="74"/>
-      <c r="D135" s="60"/>
+        <v>225</v>
+      </c>
+      <c r="C135" s="48"/>
+      <c r="D135" s="65"/>
     </row>
     <row r="136" spans="1:4" ht="14.25" thickBot="1">
       <c r="A136" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="C136" s="75"/>
-      <c r="D136" s="60"/>
+        <v>226</v>
+      </c>
+      <c r="C136" s="49"/>
+      <c r="D136" s="65"/>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="C137" s="74" t="s">
-        <v>610</v>
-      </c>
-      <c r="D137" s="60"/>
+        <v>227</v>
+      </c>
+      <c r="C137" s="48" t="s">
+        <v>609</v>
+      </c>
+      <c r="D137" s="65"/>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C138" s="74"/>
-      <c r="D138" s="60"/>
+        <v>228</v>
+      </c>
+      <c r="C138" s="48"/>
+      <c r="D138" s="65"/>
     </row>
     <row r="139" spans="1:4" ht="14.25" thickBot="1">
       <c r="A139" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C139" s="75"/>
-      <c r="D139" s="60"/>
+        <v>229</v>
+      </c>
+      <c r="C139" s="49"/>
+      <c r="D139" s="65"/>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="C140" s="71" t="s">
-        <v>611</v>
-      </c>
-      <c r="D140" s="60"/>
+        <v>230</v>
+      </c>
+      <c r="C140" s="41" t="s">
+        <v>610</v>
+      </c>
+      <c r="D140" s="65"/>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="C141" s="71"/>
-      <c r="D141" s="60"/>
+        <v>231</v>
+      </c>
+      <c r="C141" s="41"/>
+      <c r="D141" s="65"/>
     </row>
     <row r="142" spans="1:4" ht="14.25" thickBot="1">
       <c r="A142" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="C142" s="72"/>
-      <c r="D142" s="60"/>
+        <v>232</v>
+      </c>
+      <c r="C142" s="42"/>
+      <c r="D142" s="65"/>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B143" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="C143" s="71" t="s">
-        <v>612</v>
-      </c>
-      <c r="D143" s="60"/>
+        <v>233</v>
+      </c>
+      <c r="C143" s="41" t="s">
+        <v>611</v>
+      </c>
+      <c r="D143" s="65"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B144" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="C144" s="71"/>
-      <c r="D144" s="60"/>
+        <v>234</v>
+      </c>
+      <c r="C144" s="41"/>
+      <c r="D144" s="65"/>
     </row>
     <row r="145" spans="1:4" ht="14.25" thickBot="1">
       <c r="A145" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="C145" s="72"/>
-      <c r="D145" s="60"/>
+        <v>235</v>
+      </c>
+      <c r="C145" s="42"/>
+      <c r="D145" s="65"/>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B146" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="C146" s="71" t="s">
-        <v>613</v>
-      </c>
-      <c r="D146" s="60"/>
+        <v>236</v>
+      </c>
+      <c r="C146" s="41" t="s">
+        <v>612</v>
+      </c>
+      <c r="D146" s="65"/>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="C147" s="71"/>
-      <c r="D147" s="60"/>
+        <v>237</v>
+      </c>
+      <c r="C147" s="41"/>
+      <c r="D147" s="65"/>
     </row>
     <row r="148" spans="1:4" ht="14.25" thickBot="1">
       <c r="A148" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="C148" s="72"/>
-      <c r="D148" s="60"/>
+        <v>238</v>
+      </c>
+      <c r="C148" s="42"/>
+      <c r="D148" s="65"/>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C149" s="70" t="s">
-        <v>614</v>
-      </c>
-      <c r="D149" s="60"/>
+        <v>239</v>
+      </c>
+      <c r="C149" s="50" t="s">
+        <v>613</v>
+      </c>
+      <c r="D149" s="65"/>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C150" s="70"/>
-      <c r="D150" s="60"/>
+        <v>240</v>
+      </c>
+      <c r="C150" s="50"/>
+      <c r="D150" s="65"/>
     </row>
     <row r="151" spans="1:4" ht="14.25" thickBot="1">
       <c r="A151" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C151" s="73"/>
-      <c r="D151" s="60"/>
+        <v>241</v>
+      </c>
+      <c r="C151" s="51"/>
+      <c r="D151" s="65"/>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C152" s="70" t="s">
-        <v>615</v>
-      </c>
-      <c r="D152" s="60"/>
+        <v>242</v>
+      </c>
+      <c r="C152" s="50" t="s">
+        <v>614</v>
+      </c>
+      <c r="D152" s="65"/>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C153" s="70"/>
-      <c r="D153" s="60"/>
+        <v>243</v>
+      </c>
+      <c r="C153" s="50"/>
+      <c r="D153" s="65"/>
     </row>
     <row r="154" spans="1:4" ht="14.25" thickBot="1">
       <c r="A154" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C154" s="73"/>
-      <c r="D154" s="60"/>
+        <v>244</v>
+      </c>
+      <c r="C154" s="51"/>
+      <c r="D154" s="65"/>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C155" s="70" t="s">
-        <v>616</v>
-      </c>
-      <c r="D155" s="60"/>
+        <v>245</v>
+      </c>
+      <c r="C155" s="50" t="s">
+        <v>615</v>
+      </c>
+      <c r="D155" s="65"/>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C156" s="70"/>
-      <c r="D156" s="60"/>
+        <v>246</v>
+      </c>
+      <c r="C156" s="50"/>
+      <c r="D156" s="65"/>
     </row>
     <row r="157" spans="1:4" ht="14.25" thickBot="1">
       <c r="A157" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C157" s="73"/>
-      <c r="D157" s="60"/>
+        <v>247</v>
+      </c>
+      <c r="C157" s="51"/>
+      <c r="D157" s="65"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>666</v>
-      </c>
-      <c r="C158" s="63" t="s">
-        <v>617</v>
-      </c>
-      <c r="D158" s="60"/>
+        <v>665</v>
+      </c>
+      <c r="C158" s="43" t="s">
+        <v>616</v>
+      </c>
+      <c r="D158" s="65"/>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="C159" s="63"/>
-      <c r="D159" s="60"/>
+        <v>666</v>
+      </c>
+      <c r="C159" s="43"/>
+      <c r="D159" s="65"/>
     </row>
     <row r="160" spans="1:4" ht="14.25" thickBot="1">
       <c r="A160" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="C160" s="64"/>
-      <c r="D160" s="60"/>
+        <v>667</v>
+      </c>
+      <c r="C160" s="44"/>
+      <c r="D160" s="65"/>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="C161" s="63" t="s">
-        <v>618</v>
-      </c>
-      <c r="D161" s="60"/>
+        <v>668</v>
+      </c>
+      <c r="C161" s="43" t="s">
+        <v>617</v>
+      </c>
+      <c r="D161" s="65"/>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>670</v>
-      </c>
-      <c r="C162" s="63"/>
-      <c r="D162" s="60"/>
+        <v>669</v>
+      </c>
+      <c r="C162" s="43"/>
+      <c r="D162" s="65"/>
     </row>
     <row r="163" spans="1:4" ht="14.25" thickBot="1">
       <c r="A163" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>671</v>
-      </c>
-      <c r="C163" s="64"/>
-      <c r="D163" s="60"/>
+        <v>670</v>
+      </c>
+      <c r="C163" s="44"/>
+      <c r="D163" s="65"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="C164" s="63" t="s">
-        <v>619</v>
-      </c>
-      <c r="D164" s="60"/>
+        <v>671</v>
+      </c>
+      <c r="C164" s="43" t="s">
+        <v>618</v>
+      </c>
+      <c r="D164" s="65"/>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="C165" s="63"/>
-      <c r="D165" s="60"/>
+        <v>672</v>
+      </c>
+      <c r="C165" s="43"/>
+      <c r="D165" s="65"/>
     </row>
     <row r="166" spans="1:4" ht="14.25" thickBot="1">
       <c r="A166" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="C166" s="64"/>
-      <c r="D166" s="60"/>
+        <v>673</v>
+      </c>
+      <c r="C166" s="44"/>
+      <c r="D166" s="65"/>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="C167" s="74" t="s">
-        <v>620</v>
-      </c>
-      <c r="D167" s="60"/>
+        <v>248</v>
+      </c>
+      <c r="C167" s="48" t="s">
+        <v>619</v>
+      </c>
+      <c r="D167" s="65"/>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="C168" s="74"/>
-      <c r="D168" s="60"/>
+        <v>249</v>
+      </c>
+      <c r="C168" s="48"/>
+      <c r="D168" s="65"/>
     </row>
     <row r="169" spans="1:4" ht="14.25" thickBot="1">
       <c r="A169" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="C169" s="75"/>
-      <c r="D169" s="60"/>
+        <v>250</v>
+      </c>
+      <c r="C169" s="49"/>
+      <c r="D169" s="65"/>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>675</v>
-      </c>
-      <c r="C170" s="74" t="s">
-        <v>621</v>
-      </c>
-      <c r="D170" s="60"/>
+        <v>674</v>
+      </c>
+      <c r="C170" s="48" t="s">
+        <v>620</v>
+      </c>
+      <c r="D170" s="65"/>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>676</v>
-      </c>
-      <c r="C171" s="74"/>
-      <c r="D171" s="60"/>
+        <v>675</v>
+      </c>
+      <c r="C171" s="48"/>
+      <c r="D171" s="65"/>
     </row>
     <row r="172" spans="1:4" ht="14.25" thickBot="1">
       <c r="A172" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>677</v>
-      </c>
-      <c r="C172" s="75"/>
-      <c r="D172" s="60"/>
+        <v>676</v>
+      </c>
+      <c r="C172" s="49"/>
+      <c r="D172" s="65"/>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>678</v>
-      </c>
-      <c r="C173" s="74" t="s">
-        <v>622</v>
-      </c>
-      <c r="D173" s="60"/>
+        <v>677</v>
+      </c>
+      <c r="C173" s="48" t="s">
+        <v>621</v>
+      </c>
+      <c r="D173" s="65"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>679</v>
-      </c>
-      <c r="C174" s="74"/>
-      <c r="D174" s="60"/>
+        <v>678</v>
+      </c>
+      <c r="C174" s="48"/>
+      <c r="D174" s="65"/>
     </row>
     <row r="175" spans="1:4" ht="14.25" thickBot="1">
       <c r="A175" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>680</v>
-      </c>
-      <c r="C175" s="75"/>
-      <c r="D175" s="60"/>
+        <v>679</v>
+      </c>
+      <c r="C175" s="49"/>
+      <c r="D175" s="65"/>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B176" s="22" t="s">
-        <v>681</v>
-      </c>
-      <c r="C176" s="71" t="s">
-        <v>623</v>
-      </c>
-      <c r="D176" s="60"/>
+        <v>680</v>
+      </c>
+      <c r="C176" s="41" t="s">
+        <v>622</v>
+      </c>
+      <c r="D176" s="65"/>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B177" s="22" t="s">
-        <v>682</v>
-      </c>
-      <c r="C177" s="71"/>
-      <c r="D177" s="60"/>
+        <v>681</v>
+      </c>
+      <c r="C177" s="41"/>
+      <c r="D177" s="65"/>
     </row>
     <row r="178" spans="1:4" ht="14.25" thickBot="1">
       <c r="A178" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>683</v>
-      </c>
-      <c r="C178" s="72"/>
-      <c r="D178" s="60"/>
+        <v>682</v>
+      </c>
+      <c r="C178" s="42"/>
+      <c r="D178" s="65"/>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B179" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="C179" s="71" t="s">
-        <v>624</v>
-      </c>
-      <c r="D179" s="60"/>
+        <v>251</v>
+      </c>
+      <c r="C179" s="41" t="s">
+        <v>623</v>
+      </c>
+      <c r="D179" s="65"/>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B180" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C180" s="71"/>
-      <c r="D180" s="60"/>
+        <v>252</v>
+      </c>
+      <c r="C180" s="41"/>
+      <c r="D180" s="65"/>
     </row>
     <row r="181" spans="1:4" ht="14.25" thickBot="1">
       <c r="A181" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="C181" s="72"/>
-      <c r="D181" s="60"/>
+        <v>253</v>
+      </c>
+      <c r="C181" s="42"/>
+      <c r="D181" s="65"/>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B182" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="C182" s="71" t="s">
-        <v>625</v>
-      </c>
-      <c r="D182" s="60"/>
+        <v>254</v>
+      </c>
+      <c r="C182" s="41" t="s">
+        <v>624</v>
+      </c>
+      <c r="D182" s="65"/>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B183" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C183" s="71"/>
-      <c r="D183" s="60"/>
+        <v>255</v>
+      </c>
+      <c r="C183" s="41"/>
+      <c r="D183" s="65"/>
     </row>
     <row r="184" spans="1:4" ht="14.25" thickBot="1">
       <c r="A184" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B184" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="C184" s="72"/>
-      <c r="D184" s="60"/>
+        <v>256</v>
+      </c>
+      <c r="C184" s="42"/>
+      <c r="D184" s="65"/>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C185" s="38" t="s">
-        <v>626</v>
-      </c>
-      <c r="D185" s="60"/>
+        <v>257</v>
+      </c>
+      <c r="C185" s="39" t="s">
+        <v>625</v>
+      </c>
+      <c r="D185" s="65"/>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="C186" s="38"/>
-      <c r="D186" s="60"/>
+        <v>258</v>
+      </c>
+      <c r="C186" s="39"/>
+      <c r="D186" s="65"/>
     </row>
     <row r="187" spans="1:4" ht="14.25" thickBot="1">
       <c r="A187" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B187" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="C187" s="39"/>
-      <c r="D187" s="60"/>
+        <v>259</v>
+      </c>
+      <c r="C187" s="40"/>
+      <c r="D187" s="65"/>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B188" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C188" s="38" t="s">
-        <v>627</v>
-      </c>
-      <c r="D188" s="60"/>
+        <v>260</v>
+      </c>
+      <c r="C188" s="39" t="s">
+        <v>626</v>
+      </c>
+      <c r="D188" s="65"/>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="C189" s="38"/>
-      <c r="D189" s="60"/>
+        <v>261</v>
+      </c>
+      <c r="C189" s="39"/>
+      <c r="D189" s="65"/>
     </row>
     <row r="190" spans="1:4" ht="14.25" thickBot="1">
       <c r="A190" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="C190" s="39"/>
-      <c r="D190" s="60"/>
+        <v>262</v>
+      </c>
+      <c r="C190" s="40"/>
+      <c r="D190" s="65"/>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="C191" s="38" t="s">
-        <v>628</v>
-      </c>
-      <c r="D191" s="60"/>
+        <v>263</v>
+      </c>
+      <c r="C191" s="39" t="s">
+        <v>627</v>
+      </c>
+      <c r="D191" s="65"/>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="C192" s="38"/>
-      <c r="D192" s="60"/>
+        <v>264</v>
+      </c>
+      <c r="C192" s="39"/>
+      <c r="D192" s="65"/>
     </row>
     <row r="193" spans="1:4" ht="14.25" thickBot="1">
       <c r="A193" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B193" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C193" s="39"/>
-      <c r="D193" s="60"/>
+        <v>265</v>
+      </c>
+      <c r="C193" s="40"/>
+      <c r="D193" s="65"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C194" s="63" t="s">
-        <v>629</v>
-      </c>
-      <c r="D194" s="60"/>
+        <v>266</v>
+      </c>
+      <c r="C194" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="D194" s="65"/>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="C195" s="63"/>
-      <c r="D195" s="60"/>
+        <v>267</v>
+      </c>
+      <c r="C195" s="43"/>
+      <c r="D195" s="65"/>
     </row>
     <row r="196" spans="1:4" ht="14.25" thickBot="1">
       <c r="A196" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C196" s="64"/>
-      <c r="D196" s="60"/>
+        <v>268</v>
+      </c>
+      <c r="C196" s="44"/>
+      <c r="D196" s="65"/>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C197" s="63" t="s">
-        <v>630</v>
-      </c>
-      <c r="D197" s="60"/>
+        <v>269</v>
+      </c>
+      <c r="C197" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="D197" s="65"/>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C198" s="63"/>
-      <c r="D198" s="60"/>
+        <v>270</v>
+      </c>
+      <c r="C198" s="43"/>
+      <c r="D198" s="65"/>
     </row>
     <row r="199" spans="1:4" ht="14.25" thickBot="1">
       <c r="A199" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C199" s="64"/>
-      <c r="D199" s="60"/>
+        <v>271</v>
+      </c>
+      <c r="C199" s="44"/>
+      <c r="D199" s="65"/>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C200" s="63" t="s">
-        <v>631</v>
-      </c>
-      <c r="D200" s="60"/>
+        <v>272</v>
+      </c>
+      <c r="C200" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="D200" s="65"/>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C201" s="63"/>
-      <c r="D201" s="60"/>
+        <v>273</v>
+      </c>
+      <c r="C201" s="43"/>
+      <c r="D201" s="65"/>
     </row>
     <row r="202" spans="1:4" ht="14.25" thickBot="1">
       <c r="A202" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C202" s="64"/>
-      <c r="D202" s="60"/>
+        <v>274</v>
+      </c>
+      <c r="C202" s="44"/>
+      <c r="D202" s="65"/>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B203" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="C203" s="74" t="s">
-        <v>632</v>
-      </c>
-      <c r="D203" s="60"/>
+        <v>275</v>
+      </c>
+      <c r="C203" s="48" t="s">
+        <v>631</v>
+      </c>
+      <c r="D203" s="65"/>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B204" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="C204" s="74"/>
-      <c r="D204" s="60"/>
+        <v>276</v>
+      </c>
+      <c r="C204" s="48"/>
+      <c r="D204" s="65"/>
     </row>
     <row r="205" spans="1:4" ht="14.25" thickBot="1">
       <c r="A205" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="C205" s="75"/>
-      <c r="D205" s="60"/>
+        <v>277</v>
+      </c>
+      <c r="C205" s="49"/>
+      <c r="D205" s="65"/>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B206" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="C206" s="74" t="s">
-        <v>633</v>
-      </c>
-      <c r="D206" s="60"/>
+        <v>278</v>
+      </c>
+      <c r="C206" s="48" t="s">
+        <v>632</v>
+      </c>
+      <c r="D206" s="65"/>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B207" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="C207" s="74"/>
-      <c r="D207" s="60"/>
+        <v>279</v>
+      </c>
+      <c r="C207" s="48"/>
+      <c r="D207" s="65"/>
     </row>
     <row r="208" spans="1:4" ht="14.25" thickBot="1">
       <c r="A208" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="C208" s="75"/>
-      <c r="D208" s="60"/>
+        <v>280</v>
+      </c>
+      <c r="C208" s="49"/>
+      <c r="D208" s="65"/>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="C209" s="74" t="s">
-        <v>634</v>
-      </c>
-      <c r="D209" s="60"/>
+        <v>281</v>
+      </c>
+      <c r="C209" s="48" t="s">
+        <v>633</v>
+      </c>
+      <c r="D209" s="65"/>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B210" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="C210" s="74"/>
-      <c r="D210" s="60"/>
+        <v>282</v>
+      </c>
+      <c r="C210" s="48"/>
+      <c r="D210" s="65"/>
     </row>
     <row r="211" spans="1:4" ht="14.25" thickBot="1">
       <c r="A211" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="C211" s="75"/>
-      <c r="D211" s="60"/>
+        <v>283</v>
+      </c>
+      <c r="C211" s="49"/>
+      <c r="D211" s="65"/>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B212" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="C212" s="71" t="s">
-        <v>635</v>
-      </c>
-      <c r="D212" s="60"/>
+        <v>284</v>
+      </c>
+      <c r="C212" s="41" t="s">
+        <v>634</v>
+      </c>
+      <c r="D212" s="65"/>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B213" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="C213" s="71"/>
-      <c r="D213" s="60"/>
+        <v>285</v>
+      </c>
+      <c r="C213" s="41"/>
+      <c r="D213" s="65"/>
     </row>
     <row r="214" spans="1:4" ht="14.25" thickBot="1">
       <c r="A214" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B214" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="C214" s="72"/>
-      <c r="D214" s="60"/>
+        <v>286</v>
+      </c>
+      <c r="C214" s="42"/>
+      <c r="D214" s="65"/>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B215" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="C215" s="71" t="s">
-        <v>636</v>
-      </c>
-      <c r="D215" s="60"/>
+        <v>287</v>
+      </c>
+      <c r="C215" s="41" t="s">
+        <v>635</v>
+      </c>
+      <c r="D215" s="65"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B216" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="C216" s="71"/>
-      <c r="D216" s="60"/>
+        <v>288</v>
+      </c>
+      <c r="C216" s="41"/>
+      <c r="D216" s="65"/>
     </row>
     <row r="217" spans="1:4" ht="14.25" thickBot="1">
       <c r="A217" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B217" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="C217" s="72"/>
-      <c r="D217" s="60"/>
+        <v>289</v>
+      </c>
+      <c r="C217" s="42"/>
+      <c r="D217" s="65"/>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B218" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="C218" s="71" t="s">
-        <v>637</v>
-      </c>
-      <c r="D218" s="60"/>
+        <v>290</v>
+      </c>
+      <c r="C218" s="41" t="s">
+        <v>636</v>
+      </c>
+      <c r="D218" s="65"/>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B219" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="C219" s="71"/>
-      <c r="D219" s="60"/>
+        <v>291</v>
+      </c>
+      <c r="C219" s="41"/>
+      <c r="D219" s="65"/>
     </row>
     <row r="220" spans="1:4" ht="14.25" thickBot="1">
       <c r="A220" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B220" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="C220" s="72"/>
-      <c r="D220" s="60"/>
+        <v>292</v>
+      </c>
+      <c r="C220" s="42"/>
+      <c r="D220" s="65"/>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C221" s="70" t="s">
-        <v>638</v>
-      </c>
-      <c r="D221" s="60"/>
+        <v>293</v>
+      </c>
+      <c r="C221" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="D221" s="65"/>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C222" s="70"/>
-      <c r="D222" s="60"/>
+        <v>294</v>
+      </c>
+      <c r="C222" s="50"/>
+      <c r="D222" s="65"/>
     </row>
     <row r="223" spans="1:4" ht="14.25" thickBot="1">
       <c r="A223" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C223" s="73"/>
-      <c r="D223" s="60"/>
+        <v>295</v>
+      </c>
+      <c r="C223" s="51"/>
+      <c r="D223" s="65"/>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C224" s="70" t="s">
-        <v>639</v>
-      </c>
-      <c r="D224" s="60"/>
+        <v>296</v>
+      </c>
+      <c r="C224" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="D224" s="65"/>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C225" s="70"/>
-      <c r="D225" s="60"/>
+        <v>297</v>
+      </c>
+      <c r="C225" s="50"/>
+      <c r="D225" s="65"/>
     </row>
     <row r="226" spans="1:4" ht="14.25" thickBot="1">
       <c r="A226" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C226" s="73"/>
-      <c r="D226" s="60"/>
+        <v>298</v>
+      </c>
+      <c r="C226" s="51"/>
+      <c r="D226" s="65"/>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C227" s="70" t="s">
-        <v>640</v>
-      </c>
-      <c r="D227" s="60"/>
+        <v>299</v>
+      </c>
+      <c r="C227" s="50" t="s">
+        <v>639</v>
+      </c>
+      <c r="D227" s="65"/>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C228" s="70"/>
-      <c r="D228" s="60"/>
+        <v>300</v>
+      </c>
+      <c r="C228" s="50"/>
+      <c r="D228" s="65"/>
     </row>
     <row r="229" spans="1:4" ht="14.25" thickBot="1">
       <c r="A229" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C229" s="73"/>
-      <c r="D229" s="60"/>
+        <v>301</v>
+      </c>
+      <c r="C229" s="51"/>
+      <c r="D229" s="65"/>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="C230" s="63" t="s">
-        <v>641</v>
-      </c>
-      <c r="D230" s="60"/>
+        <v>683</v>
+      </c>
+      <c r="C230" s="43" t="s">
+        <v>640</v>
+      </c>
+      <c r="D230" s="65"/>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="C231" s="63"/>
-      <c r="D231" s="60"/>
+        <v>684</v>
+      </c>
+      <c r="C231" s="43"/>
+      <c r="D231" s="65"/>
     </row>
     <row r="232" spans="1:4" ht="14.25" thickBot="1">
       <c r="A232" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>686</v>
-      </c>
-      <c r="C232" s="64"/>
-      <c r="D232" s="60"/>
+        <v>685</v>
+      </c>
+      <c r="C232" s="44"/>
+      <c r="D232" s="65"/>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="C233" s="63" t="s">
-        <v>642</v>
-      </c>
-      <c r="D233" s="60"/>
+        <v>686</v>
+      </c>
+      <c r="C233" s="43" t="s">
+        <v>641</v>
+      </c>
+      <c r="D233" s="65"/>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="C234" s="63"/>
-      <c r="D234" s="60"/>
+        <v>687</v>
+      </c>
+      <c r="C234" s="43"/>
+      <c r="D234" s="65"/>
     </row>
     <row r="235" spans="1:4" ht="14.25" thickBot="1">
       <c r="A235" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="C235" s="64"/>
-      <c r="D235" s="60"/>
+        <v>688</v>
+      </c>
+      <c r="C235" s="44"/>
+      <c r="D235" s="65"/>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>690</v>
-      </c>
-      <c r="C236" s="63" t="s">
-        <v>643</v>
-      </c>
-      <c r="D236" s="60"/>
+        <v>689</v>
+      </c>
+      <c r="C236" s="43" t="s">
+        <v>642</v>
+      </c>
+      <c r="D236" s="65"/>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="C237" s="63"/>
-      <c r="D237" s="60"/>
+        <v>690</v>
+      </c>
+      <c r="C237" s="43"/>
+      <c r="D237" s="65"/>
     </row>
     <row r="238" spans="1:4" ht="14.25" thickBot="1">
       <c r="A238" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="C238" s="64"/>
-      <c r="D238" s="60"/>
+        <v>691</v>
+      </c>
+      <c r="C238" s="44"/>
+      <c r="D238" s="65"/>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B239" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="C239" s="74" t="s">
-        <v>644</v>
-      </c>
-      <c r="D239" s="60"/>
+        <v>302</v>
+      </c>
+      <c r="C239" s="48" t="s">
+        <v>643</v>
+      </c>
+      <c r="D239" s="65"/>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B240" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="C240" s="74"/>
-      <c r="D240" s="60"/>
+        <v>303</v>
+      </c>
+      <c r="C240" s="48"/>
+      <c r="D240" s="65"/>
     </row>
     <row r="241" spans="1:4" ht="14.25" thickBot="1">
       <c r="A241" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B241" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="C241" s="75"/>
-      <c r="D241" s="60"/>
+        <v>304</v>
+      </c>
+      <c r="C241" s="49"/>
+      <c r="D241" s="65"/>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B242" s="18" t="s">
+        <v>692</v>
+      </c>
+      <c r="C242" s="48" t="s">
         <v>693</v>
       </c>
-      <c r="C242" s="74" t="s">
-        <v>694</v>
-      </c>
-      <c r="D242" s="60"/>
+      <c r="D242" s="65"/>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B243" s="18" t="s">
-        <v>695</v>
-      </c>
-      <c r="C243" s="74"/>
-      <c r="D243" s="60"/>
+        <v>694</v>
+      </c>
+      <c r="C243" s="48"/>
+      <c r="D243" s="65"/>
     </row>
     <row r="244" spans="1:4" ht="14.25" thickBot="1">
       <c r="A244" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B244" s="19" t="s">
-        <v>696</v>
-      </c>
-      <c r="C244" s="75"/>
-      <c r="D244" s="60"/>
+        <v>695</v>
+      </c>
+      <c r="C244" s="49"/>
+      <c r="D244" s="65"/>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B245" s="18" t="s">
+        <v>696</v>
+      </c>
+      <c r="C245" s="48" t="s">
         <v>697</v>
       </c>
-      <c r="C245" s="74" t="s">
-        <v>698</v>
-      </c>
-      <c r="D245" s="60"/>
+      <c r="D245" s="65"/>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B246" s="18" t="s">
-        <v>699</v>
-      </c>
-      <c r="C246" s="74"/>
-      <c r="D246" s="60"/>
+        <v>698</v>
+      </c>
+      <c r="C246" s="48"/>
+      <c r="D246" s="65"/>
     </row>
     <row r="247" spans="1:4" ht="14.25" thickBot="1">
       <c r="A247" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B247" s="19" t="s">
-        <v>700</v>
-      </c>
-      <c r="C247" s="75"/>
-      <c r="D247" s="60"/>
+        <v>699</v>
+      </c>
+      <c r="C247" s="49"/>
+      <c r="D247" s="65"/>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B248" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="C248" s="41" t="s">
         <v>701</v>
       </c>
-      <c r="C248" s="71" t="s">
-        <v>702</v>
-      </c>
-      <c r="D248" s="60"/>
+      <c r="D248" s="65"/>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B249" s="22" t="s">
-        <v>703</v>
-      </c>
-      <c r="C249" s="71"/>
-      <c r="D249" s="60"/>
+        <v>702</v>
+      </c>
+      <c r="C249" s="41"/>
+      <c r="D249" s="65"/>
     </row>
     <row r="250" spans="1:4" ht="14.25" thickBot="1">
       <c r="A250" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B250" s="23" t="s">
-        <v>704</v>
-      </c>
-      <c r="C250" s="72"/>
-      <c r="D250" s="60"/>
+        <v>703</v>
+      </c>
+      <c r="C250" s="42"/>
+      <c r="D250" s="65"/>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B251" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="C251" s="71" t="s">
-        <v>705</v>
-      </c>
-      <c r="D251" s="60"/>
+        <v>305</v>
+      </c>
+      <c r="C251" s="41" t="s">
+        <v>704</v>
+      </c>
+      <c r="D251" s="65"/>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B252" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="C252" s="71"/>
-      <c r="D252" s="60"/>
+        <v>306</v>
+      </c>
+      <c r="C252" s="41"/>
+      <c r="D252" s="65"/>
     </row>
     <row r="253" spans="1:4" ht="14.25" thickBot="1">
       <c r="A253" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B253" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="C253" s="72"/>
-      <c r="D253" s="60"/>
+        <v>307</v>
+      </c>
+      <c r="C253" s="42"/>
+      <c r="D253" s="65"/>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B254" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="C254" s="71" t="s">
-        <v>706</v>
-      </c>
-      <c r="D254" s="60"/>
+        <v>308</v>
+      </c>
+      <c r="C254" s="41" t="s">
+        <v>705</v>
+      </c>
+      <c r="D254" s="65"/>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B255" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="C255" s="71"/>
-      <c r="D255" s="60"/>
+        <v>309</v>
+      </c>
+      <c r="C255" s="41"/>
+      <c r="D255" s="65"/>
     </row>
     <row r="256" spans="1:4" ht="14.25" thickBot="1">
       <c r="A256" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="C256" s="72"/>
-      <c r="D256" s="60"/>
+        <v>310</v>
+      </c>
+      <c r="C256" s="42"/>
+      <c r="D256" s="65"/>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B257" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="C257" s="38" t="s">
-        <v>707</v>
-      </c>
-      <c r="D257" s="60"/>
+        <v>311</v>
+      </c>
+      <c r="C257" s="39" t="s">
+        <v>706</v>
+      </c>
+      <c r="D257" s="65"/>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B258" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="C258" s="38"/>
-      <c r="D258" s="60"/>
+        <v>312</v>
+      </c>
+      <c r="C258" s="39"/>
+      <c r="D258" s="65"/>
     </row>
     <row r="259" spans="1:4" ht="14.25" thickBot="1">
       <c r="A259" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B259" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="C259" s="39"/>
-      <c r="D259" s="60"/>
+        <v>313</v>
+      </c>
+      <c r="C259" s="40"/>
+      <c r="D259" s="65"/>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B260" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C260" s="38" t="s">
-        <v>708</v>
-      </c>
-      <c r="D260" s="60"/>
+        <v>314</v>
+      </c>
+      <c r="C260" s="39" t="s">
+        <v>707</v>
+      </c>
+      <c r="D260" s="65"/>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B261" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C261" s="38"/>
-      <c r="D261" s="60"/>
+        <v>315</v>
+      </c>
+      <c r="C261" s="39"/>
+      <c r="D261" s="65"/>
     </row>
     <row r="262" spans="1:4" ht="14.25" thickBot="1">
       <c r="A262" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B262" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="C262" s="39"/>
-      <c r="D262" s="60"/>
+        <v>316</v>
+      </c>
+      <c r="C262" s="40"/>
+      <c r="D262" s="65"/>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B263" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="C263" s="38" t="s">
-        <v>709</v>
-      </c>
-      <c r="D263" s="60"/>
+        <v>317</v>
+      </c>
+      <c r="C263" s="39" t="s">
+        <v>708</v>
+      </c>
+      <c r="D263" s="65"/>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B264" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="C264" s="38"/>
-      <c r="D264" s="60"/>
+        <v>318</v>
+      </c>
+      <c r="C264" s="39"/>
+      <c r="D264" s="65"/>
     </row>
     <row r="265" spans="1:4" ht="14.25" thickBot="1">
       <c r="A265" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B265" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C265" s="39"/>
-      <c r="D265" s="60"/>
+        <v>319</v>
+      </c>
+      <c r="C265" s="40"/>
+      <c r="D265" s="65"/>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C266" s="63" t="s">
-        <v>710</v>
-      </c>
-      <c r="D266" s="60"/>
+        <v>320</v>
+      </c>
+      <c r="C266" s="43" t="s">
+        <v>709</v>
+      </c>
+      <c r="D266" s="65"/>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C267" s="63"/>
-      <c r="D267" s="60"/>
+        <v>321</v>
+      </c>
+      <c r="C267" s="43"/>
+      <c r="D267" s="65"/>
     </row>
     <row r="268" spans="1:4" ht="14.25" thickBot="1">
       <c r="A268" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="C268" s="64"/>
-      <c r="D268" s="60"/>
+        <v>322</v>
+      </c>
+      <c r="C268" s="44"/>
+      <c r="D268" s="65"/>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C269" s="63" t="s">
-        <v>711</v>
-      </c>
-      <c r="D269" s="60"/>
+        <v>323</v>
+      </c>
+      <c r="C269" s="43" t="s">
+        <v>710</v>
+      </c>
+      <c r="D269" s="65"/>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C270" s="63"/>
-      <c r="D270" s="60"/>
+        <v>324</v>
+      </c>
+      <c r="C270" s="43"/>
+      <c r="D270" s="65"/>
     </row>
     <row r="271" spans="1:4" ht="14.25" thickBot="1">
       <c r="A271" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C271" s="64"/>
-      <c r="D271" s="60"/>
+        <v>325</v>
+      </c>
+      <c r="C271" s="44"/>
+      <c r="D271" s="65"/>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C272" s="63" t="s">
-        <v>712</v>
-      </c>
-      <c r="D272" s="60"/>
+        <v>326</v>
+      </c>
+      <c r="C272" s="43" t="s">
+        <v>711</v>
+      </c>
+      <c r="D272" s="65"/>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="C273" s="63"/>
-      <c r="D273" s="60"/>
+        <v>327</v>
+      </c>
+      <c r="C273" s="43"/>
+      <c r="D273" s="65"/>
     </row>
     <row r="274" spans="1:4" ht="14.25" thickBot="1">
       <c r="A274" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C274" s="64"/>
-      <c r="D274" s="60"/>
+        <v>328</v>
+      </c>
+      <c r="C274" s="44"/>
+      <c r="D274" s="65"/>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="C275" s="74" t="s">
-        <v>713</v>
-      </c>
-      <c r="D275" s="60"/>
+        <v>329</v>
+      </c>
+      <c r="C275" s="48" t="s">
+        <v>712</v>
+      </c>
+      <c r="D275" s="65"/>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B276" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="C276" s="74"/>
-      <c r="D276" s="60"/>
+        <v>330</v>
+      </c>
+      <c r="C276" s="48"/>
+      <c r="D276" s="65"/>
     </row>
     <row r="277" spans="1:4" ht="14.25" thickBot="1">
       <c r="A277" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B277" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="C277" s="75"/>
-      <c r="D277" s="60"/>
+        <v>331</v>
+      </c>
+      <c r="C277" s="49"/>
+      <c r="D277" s="65"/>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B278" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="C278" s="74" t="s">
-        <v>714</v>
-      </c>
-      <c r="D278" s="60"/>
+        <v>332</v>
+      </c>
+      <c r="C278" s="48" t="s">
+        <v>713</v>
+      </c>
+      <c r="D278" s="65"/>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="C279" s="74"/>
-      <c r="D279" s="60"/>
+        <v>333</v>
+      </c>
+      <c r="C279" s="48"/>
+      <c r="D279" s="65"/>
     </row>
     <row r="280" spans="1:4" ht="14.25" thickBot="1">
       <c r="A280" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B280" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="C280" s="75"/>
-      <c r="D280" s="60"/>
+        <v>334</v>
+      </c>
+      <c r="C280" s="49"/>
+      <c r="D280" s="65"/>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="C281" s="74" t="s">
-        <v>715</v>
-      </c>
-      <c r="D281" s="60"/>
+        <v>335</v>
+      </c>
+      <c r="C281" s="48" t="s">
+        <v>714</v>
+      </c>
+      <c r="D281" s="65"/>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="C282" s="74"/>
-      <c r="D282" s="60"/>
+        <v>336</v>
+      </c>
+      <c r="C282" s="48"/>
+      <c r="D282" s="65"/>
     </row>
     <row r="283" spans="1:4" ht="14.25" thickBot="1">
       <c r="A283" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B283" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="C283" s="75"/>
-      <c r="D283" s="60"/>
+        <v>337</v>
+      </c>
+      <c r="C283" s="49"/>
+      <c r="D283" s="65"/>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B284" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="C284" s="71" t="s">
-        <v>716</v>
-      </c>
-      <c r="D284" s="60"/>
+        <v>338</v>
+      </c>
+      <c r="C284" s="41" t="s">
+        <v>715</v>
+      </c>
+      <c r="D284" s="65"/>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B285" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="C285" s="71"/>
-      <c r="D285" s="60"/>
+        <v>339</v>
+      </c>
+      <c r="C285" s="41"/>
+      <c r="D285" s="65"/>
     </row>
     <row r="286" spans="1:4" ht="14.25" thickBot="1">
       <c r="A286" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B286" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="C286" s="72"/>
-      <c r="D286" s="60"/>
+        <v>340</v>
+      </c>
+      <c r="C286" s="42"/>
+      <c r="D286" s="65"/>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B287" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="C287" s="71" t="s">
-        <v>717</v>
-      </c>
-      <c r="D287" s="60"/>
+        <v>341</v>
+      </c>
+      <c r="C287" s="41" t="s">
+        <v>716</v>
+      </c>
+      <c r="D287" s="65"/>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B288" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="C288" s="71"/>
-      <c r="D288" s="60"/>
+        <v>342</v>
+      </c>
+      <c r="C288" s="41"/>
+      <c r="D288" s="65"/>
     </row>
     <row r="289" spans="1:4" ht="14.25" thickBot="1">
       <c r="A289" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B289" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="C289" s="72"/>
-      <c r="D289" s="60"/>
+        <v>343</v>
+      </c>
+      <c r="C289" s="42"/>
+      <c r="D289" s="65"/>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B290" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="C290" s="71" t="s">
-        <v>718</v>
-      </c>
-      <c r="D290" s="60"/>
+        <v>344</v>
+      </c>
+      <c r="C290" s="41" t="s">
+        <v>717</v>
+      </c>
+      <c r="D290" s="65"/>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B291" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="C291" s="71"/>
-      <c r="D291" s="60"/>
+        <v>345</v>
+      </c>
+      <c r="C291" s="41"/>
+      <c r="D291" s="65"/>
     </row>
     <row r="292" spans="1:4" ht="14.25" thickBot="1">
       <c r="A292" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B292" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="C292" s="72"/>
-      <c r="D292" s="60"/>
+        <v>346</v>
+      </c>
+      <c r="C292" s="42"/>
+      <c r="D292" s="65"/>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C293" s="70" t="s">
-        <v>719</v>
-      </c>
-      <c r="D293" s="60"/>
+        <v>347</v>
+      </c>
+      <c r="C293" s="50" t="s">
+        <v>718</v>
+      </c>
+      <c r="D293" s="65"/>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="C294" s="70"/>
-      <c r="D294" s="60"/>
+        <v>348</v>
+      </c>
+      <c r="C294" s="50"/>
+      <c r="D294" s="65"/>
     </row>
     <row r="295" spans="1:4" ht="14.25" thickBot="1">
       <c r="A295" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="C295" s="73"/>
-      <c r="D295" s="60"/>
+        <v>349</v>
+      </c>
+      <c r="C295" s="51"/>
+      <c r="D295" s="65"/>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C296" s="70" t="s">
-        <v>720</v>
-      </c>
-      <c r="D296" s="60"/>
+        <v>350</v>
+      </c>
+      <c r="C296" s="50" t="s">
+        <v>719</v>
+      </c>
+      <c r="D296" s="65"/>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="C297" s="70"/>
-      <c r="D297" s="60"/>
+        <v>351</v>
+      </c>
+      <c r="C297" s="50"/>
+      <c r="D297" s="65"/>
     </row>
     <row r="298" spans="1:4" ht="14.25" thickBot="1">
       <c r="A298" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C298" s="73"/>
-      <c r="D298" s="60"/>
+        <v>352</v>
+      </c>
+      <c r="C298" s="51"/>
+      <c r="D298" s="65"/>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C299" s="70" t="s">
-        <v>721</v>
-      </c>
-      <c r="D299" s="60"/>
+        <v>353</v>
+      </c>
+      <c r="C299" s="50" t="s">
+        <v>720</v>
+      </c>
+      <c r="D299" s="65"/>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="C300" s="70"/>
-      <c r="D300" s="60"/>
+        <v>354</v>
+      </c>
+      <c r="C300" s="50"/>
+      <c r="D300" s="65"/>
     </row>
     <row r="301" spans="1:4" ht="14.25" thickBot="1">
       <c r="A301" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="C301" s="70"/>
-      <c r="D301" s="61"/>
+        <v>355</v>
+      </c>
+      <c r="C301" s="50"/>
+      <c r="D301" s="66"/>
     </row>
     <row r="302" spans="1:4" ht="13.5" customHeight="1">
       <c r="A302" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="C302" s="40" t="s">
         <v>782</v>
       </c>
-      <c r="D302" s="55" t="s">
-        <v>813</v>
+      <c r="C302" s="52" t="s">
+        <v>781</v>
+      </c>
+      <c r="D302" s="60" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="C303" s="41"/>
-      <c r="D303" s="55"/>
+        <v>783</v>
+      </c>
+      <c r="C303" s="53"/>
+      <c r="D303" s="60"/>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="C304" s="41"/>
-      <c r="D304" s="55"/>
+        <v>784</v>
+      </c>
+      <c r="C304" s="53"/>
+      <c r="D304" s="60"/>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="C305" s="41"/>
-      <c r="D305" s="55"/>
+        <v>785</v>
+      </c>
+      <c r="C305" s="53"/>
+      <c r="D305" s="60"/>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="C306" s="41"/>
-      <c r="D306" s="55"/>
+        <v>786</v>
+      </c>
+      <c r="C306" s="53"/>
+      <c r="D306" s="60"/>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="C307" s="41"/>
-      <c r="D307" s="55"/>
+        <v>787</v>
+      </c>
+      <c r="C307" s="53"/>
+      <c r="D307" s="60"/>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="C308" s="41"/>
-      <c r="D308" s="55"/>
+        <v>788</v>
+      </c>
+      <c r="C308" s="53"/>
+      <c r="D308" s="60"/>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="C309" s="41"/>
-      <c r="D309" s="55"/>
+        <v>789</v>
+      </c>
+      <c r="C309" s="53"/>
+      <c r="D309" s="60"/>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="C310" s="41"/>
-      <c r="D310" s="55"/>
+        <v>790</v>
+      </c>
+      <c r="C310" s="53"/>
+      <c r="D310" s="60"/>
     </row>
     <row r="311" spans="1:4" ht="14.25" thickBot="1">
       <c r="A311" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="C311" s="42"/>
-      <c r="D311" s="55"/>
+        <v>791</v>
+      </c>
+      <c r="C311" s="54"/>
+      <c r="D311" s="60"/>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="C312" s="40" t="s">
         <v>771</v>
       </c>
-      <c r="D312" s="50" t="s">
-        <v>814</v>
+      <c r="C312" s="52" t="s">
+        <v>770</v>
+      </c>
+      <c r="D312" s="59" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>773</v>
-      </c>
-      <c r="C313" s="41"/>
-      <c r="D313" s="50"/>
+        <v>772</v>
+      </c>
+      <c r="C313" s="53"/>
+      <c r="D313" s="59"/>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="C314" s="41"/>
-      <c r="D314" s="50"/>
+        <v>773</v>
+      </c>
+      <c r="C314" s="53"/>
+      <c r="D314" s="59"/>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="C315" s="41"/>
-      <c r="D315" s="50"/>
+        <v>774</v>
+      </c>
+      <c r="C315" s="53"/>
+      <c r="D315" s="59"/>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="C316" s="41"/>
-      <c r="D316" s="50"/>
+        <v>775</v>
+      </c>
+      <c r="C316" s="53"/>
+      <c r="D316" s="59"/>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="C317" s="41"/>
-      <c r="D317" s="50"/>
+        <v>776</v>
+      </c>
+      <c r="C317" s="53"/>
+      <c r="D317" s="59"/>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="C318" s="41"/>
-      <c r="D318" s="50"/>
+        <v>777</v>
+      </c>
+      <c r="C318" s="53"/>
+      <c r="D318" s="59"/>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="C319" s="41"/>
-      <c r="D319" s="50"/>
+        <v>778</v>
+      </c>
+      <c r="C319" s="53"/>
+      <c r="D319" s="59"/>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="C320" s="41"/>
-      <c r="D320" s="50"/>
+        <v>779</v>
+      </c>
+      <c r="C320" s="53"/>
+      <c r="D320" s="59"/>
     </row>
     <row r="321" spans="1:4" ht="14.25" thickBot="1">
       <c r="A321" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="C321" s="42"/>
-      <c r="D321" s="50"/>
+        <v>780</v>
+      </c>
+      <c r="C321" s="54"/>
+      <c r="D321" s="59"/>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="C322" s="40" t="s">
         <v>793</v>
       </c>
-      <c r="D322" s="47" t="s">
-        <v>815</v>
+      <c r="C322" s="52" t="s">
+        <v>792</v>
+      </c>
+      <c r="D322" s="61" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>795</v>
-      </c>
-      <c r="C323" s="41"/>
-      <c r="D323" s="47"/>
+        <v>794</v>
+      </c>
+      <c r="C323" s="53"/>
+      <c r="D323" s="61"/>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>796</v>
-      </c>
-      <c r="C324" s="41"/>
-      <c r="D324" s="47"/>
+        <v>795</v>
+      </c>
+      <c r="C324" s="53"/>
+      <c r="D324" s="61"/>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="C325" s="41"/>
-      <c r="D325" s="47"/>
+        <v>796</v>
+      </c>
+      <c r="C325" s="53"/>
+      <c r="D325" s="61"/>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="C326" s="41"/>
-      <c r="D326" s="47"/>
+        <v>797</v>
+      </c>
+      <c r="C326" s="53"/>
+      <c r="D326" s="61"/>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>799</v>
-      </c>
-      <c r="C327" s="41"/>
-      <c r="D327" s="47"/>
+        <v>798</v>
+      </c>
+      <c r="C327" s="53"/>
+      <c r="D327" s="61"/>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="C328" s="41"/>
-      <c r="D328" s="47"/>
+        <v>799</v>
+      </c>
+      <c r="C328" s="53"/>
+      <c r="D328" s="61"/>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="C329" s="41"/>
-      <c r="D329" s="47"/>
+        <v>800</v>
+      </c>
+      <c r="C329" s="53"/>
+      <c r="D329" s="61"/>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="C330" s="41"/>
-      <c r="D330" s="47"/>
+        <v>801</v>
+      </c>
+      <c r="C330" s="53"/>
+      <c r="D330" s="61"/>
     </row>
     <row r="331" spans="1:4" ht="14.25" thickBot="1">
       <c r="A331" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="C331" s="42"/>
-      <c r="D331" s="47"/>
+        <v>802</v>
+      </c>
+      <c r="C331" s="54"/>
+      <c r="D331" s="61"/>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="C332" s="40" t="s">
-        <v>937</v>
-      </c>
-      <c r="D332" s="57" t="s">
-        <v>948</v>
+        <v>935</v>
+      </c>
+      <c r="C332" s="52" t="s">
+        <v>934</v>
+      </c>
+      <c r="D332" s="62" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="C333" s="41"/>
-      <c r="D333" s="57"/>
+        <v>936</v>
+      </c>
+      <c r="C333" s="53"/>
+      <c r="D333" s="62"/>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="C334" s="41"/>
-      <c r="D334" s="57"/>
+        <v>937</v>
+      </c>
+      <c r="C334" s="53"/>
+      <c r="D334" s="62"/>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>941</v>
-      </c>
-      <c r="C335" s="41"/>
-      <c r="D335" s="57"/>
+        <v>938</v>
+      </c>
+      <c r="C335" s="53"/>
+      <c r="D335" s="62"/>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>942</v>
-      </c>
-      <c r="C336" s="41"/>
-      <c r="D336" s="57"/>
+        <v>939</v>
+      </c>
+      <c r="C336" s="53"/>
+      <c r="D336" s="62"/>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="C337" s="41"/>
-      <c r="D337" s="57"/>
+        <v>940</v>
+      </c>
+      <c r="C337" s="53"/>
+      <c r="D337" s="62"/>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="C338" s="41"/>
-      <c r="D338" s="57"/>
+        <v>941</v>
+      </c>
+      <c r="C338" s="53"/>
+      <c r="D338" s="62"/>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="C339" s="41"/>
-      <c r="D339" s="57"/>
+        <v>942</v>
+      </c>
+      <c r="C339" s="53"/>
+      <c r="D339" s="62"/>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>946</v>
-      </c>
-      <c r="C340" s="41"/>
-      <c r="D340" s="57"/>
+        <v>943</v>
+      </c>
+      <c r="C340" s="53"/>
+      <c r="D340" s="62"/>
     </row>
     <row r="341" spans="1:4" ht="14.25" thickBot="1">
       <c r="A341" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>947</v>
-      </c>
-      <c r="C341" s="42"/>
-      <c r="D341" s="57"/>
+        <v>944</v>
+      </c>
+      <c r="C341" s="54"/>
+      <c r="D341" s="62"/>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C342" s="26" t="s">
-        <v>837</v>
-      </c>
-      <c r="D342" s="55" t="s">
-        <v>845</v>
+        <v>834</v>
+      </c>
+      <c r="D342" s="60" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C343" s="27" t="s">
-        <v>838</v>
-      </c>
-      <c r="D343" s="55"/>
+        <v>835</v>
+      </c>
+      <c r="D343" s="60"/>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C344" s="27" t="s">
-        <v>839</v>
-      </c>
-      <c r="D344" s="55"/>
+        <v>836</v>
+      </c>
+      <c r="D344" s="60"/>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C345" s="27" t="s">
-        <v>840</v>
-      </c>
-      <c r="D345" s="55"/>
+        <v>837</v>
+      </c>
+      <c r="D345" s="60"/>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C346" s="27" t="s">
-        <v>841</v>
-      </c>
-      <c r="D346" s="55"/>
+        <v>838</v>
+      </c>
+      <c r="D346" s="60"/>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C347" s="27" t="s">
-        <v>842</v>
-      </c>
-      <c r="D347" s="55"/>
+        <v>839</v>
+      </c>
+      <c r="D347" s="60"/>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C348" s="27" t="s">
-        <v>843</v>
-      </c>
-      <c r="D348" s="55"/>
+        <v>840</v>
+      </c>
+      <c r="D348" s="60"/>
     </row>
     <row r="349" spans="1:4" ht="14.25" thickBot="1">
       <c r="A349" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B349" s="10" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C349" s="28" t="s">
-        <v>844</v>
-      </c>
-      <c r="D349" s="55"/>
+        <v>841</v>
+      </c>
+      <c r="D349" s="60"/>
     </row>
     <row r="350" spans="1:4" ht="13.5" customHeight="1">
       <c r="A350" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C350" s="26" t="s">
-        <v>747</v>
-      </c>
-      <c r="D350" s="50" t="s">
-        <v>816</v>
+        <v>746</v>
+      </c>
+      <c r="D350" s="59" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C351" s="27" t="s">
-        <v>748</v>
-      </c>
-      <c r="D351" s="50"/>
+        <v>747</v>
+      </c>
+      <c r="D351" s="59"/>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C352" s="27" t="s">
-        <v>749</v>
-      </c>
-      <c r="D352" s="50"/>
+        <v>748</v>
+      </c>
+      <c r="D352" s="59"/>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B353" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="C353" s="27" t="s">
         <v>753</v>
       </c>
-      <c r="C353" s="27" t="s">
-        <v>754</v>
-      </c>
-      <c r="D353" s="50"/>
+      <c r="D353" s="59"/>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B354" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C354" s="27" t="s">
-        <v>756</v>
-      </c>
-      <c r="D354" s="50"/>
+        <v>755</v>
+      </c>
+      <c r="D354" s="59"/>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B355" s="9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C355" s="27" t="s">
-        <v>755</v>
-      </c>
-      <c r="D355" s="50"/>
+        <v>754</v>
+      </c>
+      <c r="D355" s="59"/>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C356" s="27" t="s">
-        <v>757</v>
-      </c>
-      <c r="D356" s="50"/>
+        <v>756</v>
+      </c>
+      <c r="D356" s="59"/>
     </row>
     <row r="357" spans="1:4" ht="14.25" thickBot="1">
       <c r="A357" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C357" s="28" t="s">
-        <v>758</v>
-      </c>
-      <c r="D357" s="50"/>
+        <v>757</v>
+      </c>
+      <c r="D357" s="59"/>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C358" s="26" t="s">
-        <v>912</v>
-      </c>
-      <c r="D358" s="47" t="s">
-        <v>862</v>
+        <v>909</v>
+      </c>
+      <c r="D358" s="61" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="13.5" customHeight="1">
       <c r="A359" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B359" s="9" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C359" s="27" t="s">
-        <v>913</v>
-      </c>
-      <c r="D359" s="47"/>
+        <v>910</v>
+      </c>
+      <c r="D359" s="61"/>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C360" s="27" t="s">
-        <v>914</v>
-      </c>
-      <c r="D360" s="47"/>
+        <v>911</v>
+      </c>
+      <c r="D360" s="61"/>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B361" s="9" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C361" s="27" t="s">
-        <v>915</v>
-      </c>
-      <c r="D361" s="47"/>
+        <v>912</v>
+      </c>
+      <c r="D361" s="61"/>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B362" s="9" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C362" s="27" t="s">
-        <v>916</v>
-      </c>
-      <c r="D362" s="47"/>
+        <v>913</v>
+      </c>
+      <c r="D362" s="61"/>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B363" s="9" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C363" s="27" t="s">
-        <v>917</v>
-      </c>
-      <c r="D363" s="47"/>
+        <v>914</v>
+      </c>
+      <c r="D363" s="61"/>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B364" s="9" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C364" s="27" t="s">
-        <v>918</v>
-      </c>
-      <c r="D364" s="47"/>
+        <v>915</v>
+      </c>
+      <c r="D364" s="61"/>
     </row>
     <row r="365" spans="1:4" ht="14.25" thickBot="1">
       <c r="A365" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C365" s="28" t="s">
-        <v>919</v>
-      </c>
-      <c r="D365" s="47"/>
+        <v>916</v>
+      </c>
+      <c r="D365" s="61"/>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="1" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C366" s="26" t="s">
-        <v>920</v>
-      </c>
-      <c r="D366" s="57" t="s">
-        <v>936</v>
+        <v>917</v>
+      </c>
+      <c r="D366" s="62" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B367" s="9" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C367" s="27" t="s">
-        <v>921</v>
-      </c>
-      <c r="D367" s="57"/>
+        <v>918</v>
+      </c>
+      <c r="D367" s="62"/>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C368" s="27" t="s">
-        <v>922</v>
-      </c>
-      <c r="D368" s="57"/>
+        <v>919</v>
+      </c>
+      <c r="D368" s="62"/>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C369" s="27" t="s">
-        <v>923</v>
-      </c>
-      <c r="D369" s="57"/>
+        <v>920</v>
+      </c>
+      <c r="D369" s="62"/>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C370" s="27" t="s">
-        <v>924</v>
-      </c>
-      <c r="D370" s="57"/>
+        <v>921</v>
+      </c>
+      <c r="D370" s="62"/>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B371" s="9" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C371" s="27" t="s">
-        <v>925</v>
-      </c>
-      <c r="D371" s="57"/>
+        <v>922</v>
+      </c>
+      <c r="D371" s="62"/>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C372" s="27" t="s">
-        <v>926</v>
-      </c>
-      <c r="D372" s="57"/>
+        <v>923</v>
+      </c>
+      <c r="D372" s="62"/>
     </row>
     <row r="373" spans="1:4" ht="14.25" thickBot="1">
       <c r="A373" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C373" s="28" t="s">
-        <v>927</v>
-      </c>
-      <c r="D373" s="57"/>
+        <v>924</v>
+      </c>
+      <c r="D373" s="62"/>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C374" s="29" t="s">
-        <v>867</v>
-      </c>
-      <c r="D374" s="50" t="s">
-        <v>879</v>
+        <v>864</v>
+      </c>
+      <c r="D374" s="59" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B375" s="12" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C375" s="30" t="s">
-        <v>868</v>
-      </c>
-      <c r="D375" s="50"/>
+        <v>865</v>
+      </c>
+      <c r="D375" s="59"/>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B376" s="12" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C376" s="30" t="s">
-        <v>869</v>
-      </c>
-      <c r="D376" s="50"/>
+        <v>866</v>
+      </c>
+      <c r="D376" s="59"/>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B377" s="12" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C377" s="30" t="s">
-        <v>870</v>
-      </c>
-      <c r="D377" s="50"/>
+        <v>867</v>
+      </c>
+      <c r="D377" s="59"/>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B378" s="12" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C378" s="30" t="s">
-        <v>875</v>
-      </c>
-      <c r="D378" s="50"/>
+        <v>872</v>
+      </c>
+      <c r="D378" s="59"/>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B379" s="12" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C379" s="30" t="s">
-        <v>876</v>
-      </c>
-      <c r="D379" s="50"/>
+        <v>873</v>
+      </c>
+      <c r="D379" s="59"/>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B380" s="12" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C380" s="30" t="s">
-        <v>877</v>
-      </c>
-      <c r="D380" s="50"/>
+        <v>874</v>
+      </c>
+      <c r="D380" s="59"/>
     </row>
     <row r="381" spans="1:4" ht="14.25" thickBot="1">
       <c r="A381" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C381" s="31" t="s">
-        <v>878</v>
-      </c>
-      <c r="D381" s="50"/>
+        <v>875</v>
+      </c>
+      <c r="D381" s="59"/>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B382" s="11" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C382" s="29" t="s">
-        <v>881</v>
-      </c>
-      <c r="D382" s="47" t="s">
-        <v>880</v>
+        <v>878</v>
+      </c>
+      <c r="D382" s="61" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B383" s="12" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C383" s="30" t="s">
-        <v>882</v>
-      </c>
-      <c r="D383" s="47"/>
+        <v>879</v>
+      </c>
+      <c r="D383" s="61"/>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B384" s="12" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C384" s="30" t="s">
-        <v>883</v>
-      </c>
-      <c r="D384" s="47"/>
+        <v>880</v>
+      </c>
+      <c r="D384" s="61"/>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B385" s="12" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C385" s="30" t="s">
-        <v>884</v>
-      </c>
-      <c r="D385" s="47"/>
+        <v>881</v>
+      </c>
+      <c r="D385" s="61"/>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B386" s="12" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C386" s="30" t="s">
-        <v>885</v>
-      </c>
-      <c r="D386" s="47"/>
+        <v>882</v>
+      </c>
+      <c r="D386" s="61"/>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B387" s="12" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C387" s="30" t="s">
-        <v>886</v>
-      </c>
-      <c r="D387" s="47"/>
+        <v>883</v>
+      </c>
+      <c r="D387" s="61"/>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B388" s="12" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C388" s="30" t="s">
-        <v>887</v>
-      </c>
-      <c r="D388" s="47"/>
+        <v>884</v>
+      </c>
+      <c r="D388" s="61"/>
     </row>
     <row r="389" spans="1:4" ht="14.25" thickBot="1">
       <c r="A389" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C389" s="31" t="s">
-        <v>888</v>
-      </c>
-      <c r="D389" s="47"/>
+        <v>885</v>
+      </c>
+      <c r="D389" s="61"/>
     </row>
     <row r="390" spans="1:4" ht="13.5" customHeight="1">
       <c r="A390" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C390" s="62" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D390" s="55" t="s">
-        <v>808</v>
+        <v>40</v>
+      </c>
+      <c r="C390" s="55" t="s">
+        <v>999</v>
+      </c>
+      <c r="D390" s="60" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B391" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C391" s="63"/>
-      <c r="D391" s="55"/>
+        <v>41</v>
+      </c>
+      <c r="C391" s="43"/>
+      <c r="D391" s="60"/>
     </row>
     <row r="392" spans="1:4" ht="14.25" thickBot="1">
       <c r="A392" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B392" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C392" s="64"/>
-      <c r="D392" s="55"/>
+        <v>42</v>
+      </c>
+      <c r="C392" s="44"/>
+      <c r="D392" s="60"/>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B393" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C393" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="D393" s="55"/>
+        <v>43</v>
+      </c>
+      <c r="C393" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D393" s="60"/>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B394" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C394" s="66"/>
-      <c r="D394" s="55"/>
+        <v>44</v>
+      </c>
+      <c r="C394" s="46"/>
+      <c r="D394" s="60"/>
     </row>
     <row r="395" spans="1:4" ht="14.25" thickBot="1">
       <c r="A395" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B395" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C395" s="66"/>
-      <c r="D395" s="55"/>
+        <v>45</v>
+      </c>
+      <c r="C395" s="46"/>
+      <c r="D395" s="60"/>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B396" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="C396" s="67" t="s">
-        <v>746</v>
-      </c>
-      <c r="D396" s="55"/>
+        <v>732</v>
+      </c>
+      <c r="C396" s="56" t="s">
+        <v>745</v>
+      </c>
+      <c r="D396" s="60"/>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="1" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B397" s="14" t="s">
-        <v>734</v>
-      </c>
-      <c r="C397" s="68"/>
-      <c r="D397" s="55"/>
+        <v>733</v>
+      </c>
+      <c r="C397" s="57"/>
+      <c r="D397" s="60"/>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B398" s="14" t="s">
-        <v>735</v>
-      </c>
-      <c r="C398" s="68"/>
-      <c r="D398" s="55"/>
+        <v>734</v>
+      </c>
+      <c r="C398" s="57"/>
+      <c r="D398" s="60"/>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>736</v>
-      </c>
-      <c r="C399" s="68"/>
-      <c r="D399" s="55"/>
+        <v>735</v>
+      </c>
+      <c r="C399" s="57"/>
+      <c r="D399" s="60"/>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B400" s="14" t="s">
-        <v>737</v>
-      </c>
-      <c r="C400" s="68"/>
-      <c r="D400" s="55"/>
+        <v>736</v>
+      </c>
+      <c r="C400" s="57"/>
+      <c r="D400" s="60"/>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B401" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="C401" s="68"/>
-      <c r="D401" s="55"/>
+        <v>737</v>
+      </c>
+      <c r="C401" s="57"/>
+      <c r="D401" s="60"/>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B402" s="14" t="s">
-        <v>739</v>
-      </c>
-      <c r="C402" s="68"/>
-      <c r="D402" s="55"/>
+        <v>738</v>
+      </c>
+      <c r="C402" s="57"/>
+      <c r="D402" s="60"/>
     </row>
     <row r="403" spans="1:4" ht="14.25" thickBot="1">
       <c r="A403" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>740</v>
-      </c>
-      <c r="C403" s="69"/>
-      <c r="D403" s="55"/>
+        <v>739</v>
+      </c>
+      <c r="C403" s="58"/>
+      <c r="D403" s="60"/>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B404" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C404" s="63" t="s">
-        <v>732</v>
-      </c>
-      <c r="D404" s="55"/>
+        <v>46</v>
+      </c>
+      <c r="C404" s="43" t="s">
+        <v>731</v>
+      </c>
+      <c r="D404" s="60"/>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="1" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B405" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C405" s="63"/>
-      <c r="D405" s="55"/>
+        <v>47</v>
+      </c>
+      <c r="C405" s="43"/>
+      <c r="D405" s="60"/>
     </row>
     <row r="406" spans="1:4" ht="14.25" thickBot="1">
       <c r="A406" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B406" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C406" s="64"/>
-      <c r="D406" s="56"/>
+        <v>48</v>
+      </c>
+      <c r="C406" s="44"/>
+      <c r="D406" s="76"/>
     </row>
     <row r="407" spans="1:4" ht="13.5" customHeight="1">
       <c r="A407" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B407" s="32" t="s">
-        <v>999</v>
-      </c>
-      <c r="C407" s="43" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D407" s="49" t="s">
-        <v>809</v>
+        <v>996</v>
+      </c>
+      <c r="C407" s="68" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D407" s="71" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="1" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B408" s="20" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C408" s="44"/>
-      <c r="D408" s="50"/>
+        <v>997</v>
+      </c>
+      <c r="C408" s="69"/>
+      <c r="D408" s="59"/>
     </row>
     <row r="409" spans="1:4" ht="14.25" thickBot="1">
       <c r="A409" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="B409" s="21" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C409" s="45"/>
-      <c r="D409" s="50"/>
+        <v>998</v>
+      </c>
+      <c r="C409" s="70"/>
+      <c r="D409" s="59"/>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B410" s="25" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C410" s="67" t="s">
         <v>1006</v>
       </c>
-      <c r="C410" s="37" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D410" s="50"/>
+      <c r="D410" s="59"/>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B411" s="16" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C411" s="38"/>
-      <c r="D411" s="50"/>
+        <v>1004</v>
+      </c>
+      <c r="C411" s="39"/>
+      <c r="D411" s="59"/>
     </row>
     <row r="412" spans="1:4" ht="14.25" thickBot="1">
       <c r="A412" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B412" s="16" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C412" s="38"/>
-      <c r="D412" s="50"/>
+        <v>1005</v>
+      </c>
+      <c r="C412" s="39"/>
+      <c r="D412" s="59"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B413" s="33" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C413" s="34" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D413" s="50"/>
+        <v>1012</v>
+      </c>
+      <c r="D413" s="59"/>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B414" s="22" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C414" s="35" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D414" s="50"/>
+        <v>1013</v>
+      </c>
+      <c r="D414" s="59"/>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B415" s="22" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C415" s="35" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D415" s="50"/>
+        <v>1017</v>
+      </c>
+      <c r="D415" s="59"/>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B416" s="22" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C416" s="35" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D416" s="50"/>
+        <v>1018</v>
+      </c>
+      <c r="D416" s="59"/>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B417" s="22" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C417" s="35" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D417" s="50"/>
+        <v>1019</v>
+      </c>
+      <c r="D417" s="59"/>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B418" s="22" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C418" s="35" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D418" s="50"/>
+        <v>1020</v>
+      </c>
+      <c r="D418" s="59"/>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B419" s="22" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C419" s="35" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D419" s="50"/>
+        <v>1021</v>
+      </c>
+      <c r="D419" s="59"/>
     </row>
     <row r="420" spans="1:4" ht="14.25" thickBot="1">
       <c r="A420" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B420" s="23" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C420" s="36" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D420" s="51"/>
+        <v>1022</v>
+      </c>
+      <c r="D420" s="72"/>
     </row>
     <row r="421" spans="1:4" ht="13.5" customHeight="1">
       <c r="A421" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B421" s="32" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C421" s="73" t="s">
         <v>1026</v>
       </c>
-      <c r="C421" s="52" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D421" s="46" t="s">
-        <v>810</v>
+      <c r="D421" s="77" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B422" s="20" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C422" s="53"/>
-      <c r="D422" s="47"/>
+        <v>1024</v>
+      </c>
+      <c r="C422" s="74"/>
+      <c r="D422" s="61"/>
     </row>
     <row r="423" spans="1:4" ht="14.25" thickBot="1">
       <c r="A423" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B423" s="21" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C423" s="54"/>
-      <c r="D423" s="47"/>
+        <v>1025</v>
+      </c>
+      <c r="C423" s="75"/>
+      <c r="D423" s="61"/>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B424" s="25" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C424" s="67" t="s">
         <v>1034</v>
       </c>
-      <c r="C424" s="37" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D424" s="47"/>
+      <c r="D424" s="61"/>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B425" s="16" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C425" s="38"/>
-      <c r="D425" s="47"/>
+        <v>1032</v>
+      </c>
+      <c r="C425" s="39"/>
+      <c r="D425" s="61"/>
     </row>
     <row r="426" spans="1:4" ht="14.25" thickBot="1">
       <c r="A426" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B426" s="17" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C426" s="39"/>
-      <c r="D426" s="47"/>
+        <v>1033</v>
+      </c>
+      <c r="C426" s="40"/>
+      <c r="D426" s="61"/>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B427" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C427" s="52" t="s">
         <v>1030</v>
       </c>
-      <c r="C427" s="40" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D427" s="47"/>
+      <c r="D427" s="61"/>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C428" s="41"/>
-      <c r="D428" s="47"/>
+        <v>1028</v>
+      </c>
+      <c r="C428" s="53"/>
+      <c r="D428" s="61"/>
     </row>
     <row r="429" spans="1:4" ht="14.25" thickBot="1">
       <c r="A429" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C429" s="42"/>
-      <c r="D429" s="47"/>
+        <v>1029</v>
+      </c>
+      <c r="C429" s="54"/>
+      <c r="D429" s="61"/>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B430" s="32" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C430" s="68" t="s">
         <v>1038</v>
       </c>
-      <c r="C430" s="43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D430" s="47"/>
+      <c r="D430" s="61"/>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B431" s="20" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C431" s="44"/>
-      <c r="D431" s="47"/>
+        <v>1036</v>
+      </c>
+      <c r="C431" s="69"/>
+      <c r="D431" s="61"/>
     </row>
     <row r="432" spans="1:4" ht="14.25" thickBot="1">
       <c r="A432" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B432" s="20" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C432" s="44"/>
-      <c r="D432" s="47"/>
+        <v>1037</v>
+      </c>
+      <c r="C432" s="69"/>
+      <c r="D432" s="61"/>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B433" s="11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C433" s="37" t="s">
         <v>1053</v>
       </c>
-      <c r="B433" s="11" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C433" s="77" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D433" s="47"/>
+      <c r="D433" s="61"/>
     </row>
     <row r="434" spans="1:4" ht="14.25" thickBot="1">
       <c r="A434" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B434" s="13" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C434" s="38" t="s">
         <v>1052</v>
       </c>
-      <c r="C434" s="78" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D434" s="48"/>
+      <c r="D434" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="129">
+    <mergeCell ref="C424:C426"/>
+    <mergeCell ref="C427:C429"/>
+    <mergeCell ref="C430:C432"/>
+    <mergeCell ref="C407:C409"/>
+    <mergeCell ref="C410:C412"/>
+    <mergeCell ref="D407:D420"/>
+    <mergeCell ref="C421:C423"/>
+    <mergeCell ref="D390:D406"/>
+    <mergeCell ref="D421:D434"/>
+    <mergeCell ref="D350:D357"/>
+    <mergeCell ref="D342:D349"/>
+    <mergeCell ref="D358:D365"/>
+    <mergeCell ref="D374:D381"/>
+    <mergeCell ref="D382:D389"/>
+    <mergeCell ref="D366:D373"/>
+    <mergeCell ref="D332:D341"/>
+    <mergeCell ref="D322:D331"/>
+    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="D14:D301"/>
+    <mergeCell ref="D302:D311"/>
+    <mergeCell ref="D312:D321"/>
+    <mergeCell ref="C322:C331"/>
+    <mergeCell ref="C390:C392"/>
+    <mergeCell ref="C393:C395"/>
+    <mergeCell ref="C396:C403"/>
+    <mergeCell ref="C404:C406"/>
+    <mergeCell ref="C332:C341"/>
+    <mergeCell ref="C299:C301"/>
+    <mergeCell ref="C302:C311"/>
+    <mergeCell ref="C312:C321"/>
+    <mergeCell ref="C284:C286"/>
+    <mergeCell ref="C287:C289"/>
+    <mergeCell ref="C290:C292"/>
+    <mergeCell ref="C293:C295"/>
+    <mergeCell ref="C296:C298"/>
+    <mergeCell ref="C269:C271"/>
+    <mergeCell ref="C272:C274"/>
+    <mergeCell ref="C275:C277"/>
+    <mergeCell ref="C278:C280"/>
+    <mergeCell ref="C281:C283"/>
+    <mergeCell ref="C254:C256"/>
+    <mergeCell ref="C257:C259"/>
+    <mergeCell ref="C260:C262"/>
+    <mergeCell ref="C263:C265"/>
+    <mergeCell ref="C266:C268"/>
+    <mergeCell ref="C239:C241"/>
+    <mergeCell ref="C242:C244"/>
+    <mergeCell ref="C245:C247"/>
+    <mergeCell ref="C248:C250"/>
+    <mergeCell ref="C251:C253"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="C227:C229"/>
+    <mergeCell ref="C230:C232"/>
+    <mergeCell ref="C233:C235"/>
+    <mergeCell ref="C236:C238"/>
+    <mergeCell ref="C209:C211"/>
+    <mergeCell ref="C212:C214"/>
+    <mergeCell ref="C215:C217"/>
+    <mergeCell ref="C218:C220"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="C194:C196"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="C203:C205"/>
+    <mergeCell ref="C206:C208"/>
+    <mergeCell ref="C179:C181"/>
+    <mergeCell ref="C182:C184"/>
+    <mergeCell ref="C185:C187"/>
+    <mergeCell ref="C188:C190"/>
+    <mergeCell ref="C191:C193"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="C167:C169"/>
+    <mergeCell ref="C170:C172"/>
+    <mergeCell ref="C173:C175"/>
+    <mergeCell ref="C176:C178"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="C137:C139"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C65:C67"/>
     <mergeCell ref="C47:C49"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C35:C37"/>
@@ -11538,259 +11534,10 @@
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="C137:C139"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="C167:C169"/>
-    <mergeCell ref="C170:C172"/>
-    <mergeCell ref="C173:C175"/>
-    <mergeCell ref="C176:C178"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="C149:C151"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="C194:C196"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="C203:C205"/>
-    <mergeCell ref="C206:C208"/>
-    <mergeCell ref="C179:C181"/>
-    <mergeCell ref="C182:C184"/>
-    <mergeCell ref="C185:C187"/>
-    <mergeCell ref="C188:C190"/>
-    <mergeCell ref="C191:C193"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="C227:C229"/>
-    <mergeCell ref="C230:C232"/>
-    <mergeCell ref="C233:C235"/>
-    <mergeCell ref="C236:C238"/>
-    <mergeCell ref="C209:C211"/>
-    <mergeCell ref="C212:C214"/>
-    <mergeCell ref="C215:C217"/>
-    <mergeCell ref="C218:C220"/>
-    <mergeCell ref="C221:C223"/>
-    <mergeCell ref="C254:C256"/>
-    <mergeCell ref="C257:C259"/>
-    <mergeCell ref="C260:C262"/>
-    <mergeCell ref="C263:C265"/>
-    <mergeCell ref="C266:C268"/>
-    <mergeCell ref="C239:C241"/>
-    <mergeCell ref="C242:C244"/>
-    <mergeCell ref="C245:C247"/>
-    <mergeCell ref="C248:C250"/>
-    <mergeCell ref="C251:C253"/>
-    <mergeCell ref="C284:C286"/>
-    <mergeCell ref="C287:C289"/>
-    <mergeCell ref="C290:C292"/>
-    <mergeCell ref="C293:C295"/>
-    <mergeCell ref="C296:C298"/>
-    <mergeCell ref="C269:C271"/>
-    <mergeCell ref="C272:C274"/>
-    <mergeCell ref="C275:C277"/>
-    <mergeCell ref="C278:C280"/>
-    <mergeCell ref="C281:C283"/>
-    <mergeCell ref="C322:C331"/>
-    <mergeCell ref="C390:C392"/>
-    <mergeCell ref="C393:C395"/>
-    <mergeCell ref="C396:C403"/>
-    <mergeCell ref="C404:C406"/>
-    <mergeCell ref="C332:C341"/>
-    <mergeCell ref="C299:C301"/>
-    <mergeCell ref="C302:C311"/>
-    <mergeCell ref="C312:C321"/>
-    <mergeCell ref="D350:D357"/>
-    <mergeCell ref="D342:D349"/>
-    <mergeCell ref="D358:D365"/>
-    <mergeCell ref="D374:D381"/>
-    <mergeCell ref="D382:D389"/>
-    <mergeCell ref="D366:D373"/>
-    <mergeCell ref="D332:D341"/>
-    <mergeCell ref="D322:D331"/>
-    <mergeCell ref="D2:D13"/>
-    <mergeCell ref="D14:D301"/>
-    <mergeCell ref="D302:D311"/>
-    <mergeCell ref="D312:D321"/>
-    <mergeCell ref="C424:C426"/>
-    <mergeCell ref="C427:C429"/>
-    <mergeCell ref="C430:C432"/>
-    <mergeCell ref="C407:C409"/>
-    <mergeCell ref="C410:C412"/>
-    <mergeCell ref="D407:D420"/>
-    <mergeCell ref="C421:C423"/>
-    <mergeCell ref="D390:D406"/>
-    <mergeCell ref="D421:D434"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="154.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="63"/>
-    </row>
-    <row r="3" spans="1:2" ht="14.25" thickBot="1">
-      <c r="A3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="64"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="66"/>
-    </row>
-    <row r="6" spans="1:2" ht="14.25" thickBot="1">
-      <c r="A6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="66"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="14" t="s">
-        <v>734</v>
-      </c>
-      <c r="B8" s="68"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="14" t="s">
-        <v>735</v>
-      </c>
-      <c r="B9" s="68"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="14" t="s">
-        <v>736</v>
-      </c>
-      <c r="B10" s="68"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="14" t="s">
-        <v>737</v>
-      </c>
-      <c r="B11" s="68"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="B12" s="68"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="14" t="s">
-        <v>739</v>
-      </c>
-      <c r="B13" s="68"/>
-    </row>
-    <row r="14" spans="1:2" ht="14.25" thickBot="1">
-      <c r="A14" s="15" t="s">
-        <v>740</v>
-      </c>
-      <c r="B14" s="69"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="63"/>
-    </row>
-    <row r="17" spans="1:2" ht="14.25" thickBot="1">
-      <c r="A17" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="64"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B4:B6"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>